--- a/src/data/raw/TCS.NS_data.xlsx
+++ b/src/data/raw/TCS.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>3152.1650390625</v>
+        <v>3152.165283203125</v>
       </c>
       <c r="C2" t="n">
-        <v>3160.399118502959</v>
+        <v>3160.399363281328</v>
       </c>
       <c r="D2" t="n">
-        <v>3089.290184817475</v>
+        <v>3089.290424088334</v>
       </c>
       <c r="E2" t="n">
-        <v>3095.668052220368</v>
+        <v>3095.668291985204</v>
       </c>
       <c r="F2" t="n">
         <v>1245178</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>3160.351806640625</v>
+        <v>3160.3515625</v>
       </c>
       <c r="C6" t="n">
-        <v>3167.062942313922</v>
+        <v>3167.062697654854</v>
       </c>
       <c r="D6" t="n">
-        <v>3066.30131871085</v>
+        <v>3066.301081835728</v>
       </c>
       <c r="E6" t="n">
-        <v>3073.774042901008</v>
+        <v>3073.773805448609</v>
       </c>
       <c r="F6" t="n">
         <v>2885060</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>3128.414306640625</v>
+        <v>3128.41455078125</v>
       </c>
       <c r="C7" t="n">
-        <v>3139.456758120848</v>
+        <v>3139.457003123223</v>
       </c>
       <c r="D7" t="n">
-        <v>3074.820976650614</v>
+        <v>3074.82121660883</v>
       </c>
       <c r="E7" t="n">
-        <v>3127.081701160396</v>
+        <v>3127.081945197025</v>
       </c>
       <c r="F7" t="n">
         <v>3864655</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>3174.0595703125</v>
+        <v>3174.059326171875</v>
       </c>
       <c r="C9" t="n">
-        <v>3188.957142809027</v>
+        <v>3188.956897522518</v>
       </c>
       <c r="D9" t="n">
-        <v>3156.163286731722</v>
+        <v>3156.163043967633</v>
       </c>
       <c r="E9" t="n">
-        <v>3168.966665197388</v>
+        <v>3168.966421448497</v>
       </c>
       <c r="F9" t="n">
         <v>2250391</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>3212.326904296875</v>
+        <v>3212.32763671875</v>
       </c>
       <c r="C10" t="n">
-        <v>3216.562935075908</v>
+        <v>3216.563668463612</v>
       </c>
       <c r="D10" t="n">
-        <v>3146.120301990492</v>
+        <v>3146.121019317029</v>
       </c>
       <c r="E10" t="n">
-        <v>3182.198260298247</v>
+        <v>3182.198985850685</v>
       </c>
       <c r="F10" t="n">
         <v>1742837</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>3238.064208984375</v>
+        <v>3238.06396484375</v>
       </c>
       <c r="C11" t="n">
-        <v>3256.468599366342</v>
+        <v>3256.46835383808</v>
       </c>
       <c r="D11" t="n">
-        <v>3203.100633208297</v>
+        <v>3203.100391703824</v>
       </c>
       <c r="E11" t="n">
-        <v>3221.505023590264</v>
+        <v>3221.504780698154</v>
       </c>
       <c r="F11" t="n">
         <v>1843607</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>3281.13720703125</v>
+        <v>3281.136962890625</v>
       </c>
       <c r="C12" t="n">
-        <v>3284.439464745471</v>
+        <v>3284.439220359134</v>
       </c>
       <c r="D12" t="n">
-        <v>3225.389823446086</v>
+        <v>3225.389583453474</v>
       </c>
       <c r="E12" t="n">
-        <v>3234.130717276563</v>
+        <v>3234.130476633565</v>
       </c>
       <c r="F12" t="n">
         <v>1688475</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>3292.4033203125</v>
+        <v>3292.403564453125</v>
       </c>
       <c r="C13" t="n">
-        <v>3310.807710329621</v>
+        <v>3310.807955834981</v>
       </c>
       <c r="D13" t="n">
-        <v>3275.16433537576</v>
+        <v>3275.164578238068</v>
       </c>
       <c r="E13" t="n">
-        <v>3282.691216122787</v>
+        <v>3282.691459543234</v>
       </c>
       <c r="F13" t="n">
         <v>2421189</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>3266.277587890625</v>
+        <v>3266.27783203125</v>
       </c>
       <c r="C15" t="n">
-        <v>3296.919084414895</v>
+        <v>3296.919330845844</v>
       </c>
       <c r="D15" t="n">
-        <v>3258.993510343765</v>
+        <v>3258.993753939936</v>
       </c>
       <c r="E15" t="n">
-        <v>3268.12279269107</v>
+        <v>3268.123036969616</v>
       </c>
       <c r="F15" t="n">
         <v>1529349</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>3312.84765625</v>
+        <v>3312.847412109375</v>
       </c>
       <c r="C19" t="n">
-        <v>3346.791416138711</v>
+        <v>3346.791169496597</v>
       </c>
       <c r="D19" t="n">
-        <v>3284.925354098524</v>
+        <v>3284.925112015635</v>
       </c>
       <c r="E19" t="n">
-        <v>3327.36720594638</v>
+        <v>3327.366960735735</v>
       </c>
       <c r="F19" t="n">
         <v>1785879</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>3334.796875</v>
+        <v>3334.79638671875</v>
       </c>
       <c r="C20" t="n">
-        <v>3358.882943086157</v>
+        <v>3358.882451278223</v>
       </c>
       <c r="D20" t="n">
-        <v>3288.08179170558</v>
+        <v>3288.081310264357</v>
       </c>
       <c r="E20" t="n">
-        <v>3321.539946374597</v>
+        <v>3321.539460034428</v>
       </c>
       <c r="F20" t="n">
         <v>1953798</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>3262.00390625</v>
+        <v>3262.004150390625</v>
       </c>
       <c r="C21" t="n">
-        <v>3349.704241586336</v>
+        <v>3349.704492290783</v>
       </c>
       <c r="D21" t="n">
-        <v>3254.525634547931</v>
+        <v>3254.525878128853</v>
       </c>
       <c r="E21" t="n">
-        <v>3349.704241586336</v>
+        <v>3349.704492290783</v>
       </c>
       <c r="F21" t="n">
         <v>2820375</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>3382.04638671875</v>
+        <v>3382.046142578125</v>
       </c>
       <c r="C24" t="n">
-        <v>3403.121607240746</v>
+        <v>3403.12136157876</v>
       </c>
       <c r="D24" t="n">
-        <v>3353.49265562371</v>
+        <v>3353.4924135443</v>
       </c>
       <c r="E24" t="n">
-        <v>3403.121607240746</v>
+        <v>3403.12136157876</v>
       </c>
       <c r="F24" t="n">
         <v>1804469</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>3360.33935546875</v>
+        <v>3360.339111328125</v>
       </c>
       <c r="C25" t="n">
-        <v>3373.159285247819</v>
+        <v>3373.15904017578</v>
       </c>
       <c r="D25" t="n">
-        <v>3337.904537633357</v>
+        <v>3337.904295122701</v>
       </c>
       <c r="E25" t="n">
-        <v>3373.159285247819</v>
+        <v>3373.15904017578</v>
       </c>
       <c r="F25" t="n">
         <v>1138714</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>3372.576416015625</v>
+        <v>3372.57666015625</v>
       </c>
       <c r="C26" t="n">
-        <v>3392.437619471631</v>
+        <v>3392.437865050007</v>
       </c>
       <c r="D26" t="n">
-        <v>3361.747278770789</v>
+        <v>3361.747522127493</v>
       </c>
       <c r="E26" t="n">
-        <v>3369.031356110049</v>
+        <v>3369.031599994048</v>
       </c>
       <c r="F26" t="n">
         <v>1455647</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>3438.91015625</v>
+        <v>3438.910400390625</v>
       </c>
       <c r="C28" t="n">
-        <v>3445.465825909682</v>
+        <v>3445.466070515718</v>
       </c>
       <c r="D28" t="n">
-        <v>3404.383581953296</v>
+        <v>3404.383823642755</v>
       </c>
       <c r="E28" t="n">
-        <v>3413.80427463446</v>
+        <v>3413.804516992728</v>
       </c>
       <c r="F28" t="n">
         <v>1655427</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>3435.705078125</v>
+        <v>3435.705810546875</v>
       </c>
       <c r="C29" t="n">
-        <v>3440.366935033428</v>
+        <v>3440.367668449115</v>
       </c>
       <c r="D29" t="n">
-        <v>3407.151352755815</v>
+        <v>3407.152079090621</v>
       </c>
       <c r="E29" t="n">
-        <v>3418.660289769255</v>
+        <v>3418.661018557531</v>
       </c>
       <c r="F29" t="n">
         <v>1187821</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>3382.143310546875</v>
+        <v>3382.14306640625</v>
       </c>
       <c r="C30" t="n">
-        <v>3446.826023930325</v>
+        <v>3446.825775120567</v>
       </c>
       <c r="D30" t="n">
-        <v>3373.402416149757</v>
+        <v>3373.402172640095</v>
       </c>
       <c r="E30" t="n">
-        <v>3446.826023930325</v>
+        <v>3446.825775120567</v>
       </c>
       <c r="F30" t="n">
         <v>1087939</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>3399.33349609375</v>
+        <v>3399.333984375</v>
       </c>
       <c r="C31" t="n">
-        <v>3423.370952646681</v>
+        <v>3423.371444380678</v>
       </c>
       <c r="D31" t="n">
-        <v>3394.380228383535</v>
+        <v>3394.380715953297</v>
       </c>
       <c r="E31" t="n">
-        <v>3404.092332041285</v>
+        <v>3404.092821006096</v>
       </c>
       <c r="F31" t="n">
         <v>1579818</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>3419.291748046875</v>
+        <v>3419.29150390625</v>
       </c>
       <c r="C32" t="n">
-        <v>3424.48781845282</v>
+        <v>3424.48757394119</v>
       </c>
       <c r="D32" t="n">
-        <v>3360.533519738198</v>
+        <v>3360.533279792965</v>
       </c>
       <c r="E32" t="n">
-        <v>3386.610613427392</v>
+        <v>3386.61037162023</v>
       </c>
       <c r="F32" t="n">
         <v>1429449</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>3455.615478515625</v>
+        <v>3455.615234375</v>
       </c>
       <c r="C33" t="n">
-        <v>3472.077448646963</v>
+        <v>3472.077203343294</v>
       </c>
       <c r="D33" t="n">
-        <v>3425.459345839955</v>
+        <v>3425.459103829873</v>
       </c>
       <c r="E33" t="n">
-        <v>3425.653540512598</v>
+        <v>3425.653298488796</v>
       </c>
       <c r="F33" t="n">
         <v>1618931</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>3400.35302734375</v>
+        <v>3400.353515625</v>
       </c>
       <c r="C34" t="n">
-        <v>3437.016218113245</v>
+        <v>3437.016711659227</v>
       </c>
       <c r="D34" t="n">
-        <v>3389.524126769177</v>
+        <v>3389.524613495426</v>
       </c>
       <c r="E34" t="n">
-        <v>3424.633286131495</v>
+        <v>3424.633777899322</v>
       </c>
       <c r="F34" t="n">
         <v>1061369</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>3351.64697265625</v>
+        <v>3351.647216796875</v>
       </c>
       <c r="C36" t="n">
-        <v>3407.879957996013</v>
+        <v>3407.88020623276</v>
       </c>
       <c r="D36" t="n">
-        <v>3345.576907869492</v>
+        <v>3345.577151567962</v>
       </c>
       <c r="E36" t="n">
-        <v>3393.409018389144</v>
+        <v>3393.4092655718</v>
       </c>
       <c r="F36" t="n">
         <v>1139541</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>3303.620849609375</v>
+        <v>3303.62060546875</v>
       </c>
       <c r="C37" t="n">
-        <v>3347.762315749749</v>
+        <v>3347.762068347029</v>
       </c>
       <c r="D37" t="n">
-        <v>3297.259373939773</v>
+        <v>3297.259130269267</v>
       </c>
       <c r="E37" t="n">
-        <v>3316.63497438487</v>
+        <v>3316.634729282489</v>
       </c>
       <c r="F37" t="n">
         <v>1218430</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>3315.51806640625</v>
+        <v>3315.517822265625</v>
       </c>
       <c r="C38" t="n">
-        <v>3353.006645075531</v>
+        <v>3353.006398174407</v>
       </c>
       <c r="D38" t="n">
-        <v>3309.884998739534</v>
+        <v>3309.884755013704</v>
       </c>
       <c r="E38" t="n">
-        <v>3322.510733769937</v>
+        <v>3322.510489114402</v>
       </c>
       <c r="F38" t="n">
         <v>1441570</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>3302.552490234375</v>
+        <v>3302.55224609375</v>
       </c>
       <c r="C39" t="n">
-        <v>3335.088039944414</v>
+        <v>3335.087793398604</v>
       </c>
       <c r="D39" t="n">
-        <v>3284.925115609377</v>
+        <v>3284.924872771853</v>
       </c>
       <c r="E39" t="n">
-        <v>3323.967727839039</v>
+        <v>3323.967482115296</v>
       </c>
       <c r="F39" t="n">
         <v>977592</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>3217.474365234375</v>
+        <v>3217.474609375</v>
       </c>
       <c r="C41" t="n">
-        <v>3294.345571082773</v>
+        <v>3294.345821056354</v>
       </c>
       <c r="D41" t="n">
-        <v>3204.897001268458</v>
+        <v>3204.897244454718</v>
       </c>
       <c r="E41" t="n">
-        <v>3232.673712661855</v>
+        <v>3232.6739579558</v>
       </c>
       <c r="F41" t="n">
         <v>4116217</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>3274.775634765625</v>
+        <v>3274.77587890625</v>
       </c>
       <c r="C45" t="n">
-        <v>3306.922554310662</v>
+        <v>3306.922800847899</v>
       </c>
       <c r="D45" t="n">
-        <v>3262.295487223391</v>
+        <v>3262.295730433597</v>
       </c>
       <c r="E45" t="n">
-        <v>3265.111902325923</v>
+        <v>3265.112145746098</v>
       </c>
       <c r="F45" t="n">
         <v>1334132</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>3240.783447265625</v>
+        <v>3240.783203125</v>
       </c>
       <c r="C47" t="n">
-        <v>3287.547132158957</v>
+        <v>3287.546884495445</v>
       </c>
       <c r="D47" t="n">
-        <v>3234.956184992965</v>
+        <v>3234.95594129133</v>
       </c>
       <c r="E47" t="n">
-        <v>3287.547132158957</v>
+        <v>3287.546884495445</v>
       </c>
       <c r="F47" t="n">
         <v>1648500</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>3235.101806640625</v>
+        <v>3235.10205078125</v>
       </c>
       <c r="C48" t="n">
-        <v>3241.171871573529</v>
+        <v>3241.172116172238</v>
       </c>
       <c r="D48" t="n">
-        <v>3195.282180680773</v>
+        <v>3195.282421816365</v>
       </c>
       <c r="E48" t="n">
-        <v>3217.52280375017</v>
+        <v>3217.523046564175</v>
       </c>
       <c r="F48" t="n">
         <v>1024404</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>3187.463623046875</v>
+        <v>3187.4638671875</v>
       </c>
       <c r="C49" t="n">
-        <v>3272.784543452875</v>
+        <v>3272.784794128572</v>
       </c>
       <c r="D49" t="n">
-        <v>3177.800127904263</v>
+        <v>3177.800371304722</v>
       </c>
       <c r="E49" t="n">
-        <v>3237.043956694654</v>
+        <v>3237.044204632836</v>
       </c>
       <c r="F49" t="n">
         <v>1901233</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>3122.392578125</v>
+        <v>3122.39306640625</v>
       </c>
       <c r="C50" t="n">
-        <v>3209.267294028711</v>
+        <v>3209.26779589547</v>
       </c>
       <c r="D50" t="n">
-        <v>3117.002313414082</v>
+        <v>3117.0028008524</v>
       </c>
       <c r="E50" t="n">
-        <v>3185.569857010343</v>
+        <v>3185.570355171286</v>
       </c>
       <c r="F50" t="n">
         <v>2670334</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>3106.8046875</v>
+        <v>3106.804931640625</v>
       </c>
       <c r="C51" t="n">
-        <v>3166.485753076572</v>
+        <v>3166.486001907087</v>
       </c>
       <c r="D51" t="n">
-        <v>3100.103430943285</v>
+        <v>3100.103674557309</v>
       </c>
       <c r="E51" t="n">
-        <v>3156.433631129598</v>
+        <v>3156.433879170192</v>
       </c>
       <c r="F51" t="n">
         <v>1780522</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>3093.30517578125</v>
+        <v>3093.304931640625</v>
       </c>
       <c r="C52" t="n">
-        <v>3127.103345689407</v>
+        <v>3127.103098881244</v>
       </c>
       <c r="D52" t="n">
-        <v>3080.679440369898</v>
+        <v>3080.679197225765</v>
       </c>
       <c r="E52" t="n">
-        <v>3115.643015355181</v>
+        <v>3115.642769451531</v>
       </c>
       <c r="F52" t="n">
         <v>1901060</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>3087.76904296875</v>
+        <v>3087.769287109375</v>
       </c>
       <c r="C53" t="n">
-        <v>3128.656855506916</v>
+        <v>3128.657102880417</v>
       </c>
       <c r="D53" t="n">
-        <v>3053.485270970902</v>
+        <v>3053.485512400812</v>
       </c>
       <c r="E53" t="n">
-        <v>3059.798138102362</v>
+        <v>3059.798380031412</v>
       </c>
       <c r="F53" t="n">
         <v>6739966</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>3052.805419921875</v>
+        <v>3052.8056640625</v>
       </c>
       <c r="C54" t="n">
-        <v>3078.396669365795</v>
+        <v>3078.396915553018</v>
       </c>
       <c r="D54" t="n">
-        <v>3005.94452238645</v>
+        <v>3005.94476277949</v>
       </c>
       <c r="E54" t="n">
-        <v>3078.396669365795</v>
+        <v>3078.396915553018</v>
       </c>
       <c r="F54" t="n">
         <v>2289468</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>3016.6767578125</v>
+        <v>3016.677001953125</v>
       </c>
       <c r="C55" t="n">
-        <v>3065.868470372297</v>
+        <v>3065.868718494023</v>
       </c>
       <c r="D55" t="n">
-        <v>3008.275645475271</v>
+        <v>3008.275888935992</v>
       </c>
       <c r="E55" t="n">
-        <v>3052.805737743518</v>
+        <v>3052.805984808073</v>
       </c>
       <c r="F55" t="n">
         <v>1815297</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>3040.665771484375</v>
+        <v>3040.66552734375</v>
       </c>
       <c r="C56" t="n">
-        <v>3053.000096968462</v>
+        <v>3052.999851837492</v>
       </c>
       <c r="D56" t="n">
-        <v>3016.676920419367</v>
+        <v>3016.676678204852</v>
       </c>
       <c r="E56" t="n">
-        <v>3039.937363635568</v>
+        <v>3039.937119553428</v>
       </c>
       <c r="F56" t="n">
         <v>1123939</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>3034.6923828125</v>
+        <v>3034.692626953125</v>
       </c>
       <c r="C57" t="n">
-        <v>3055.767837496557</v>
+        <v>3055.768083332699</v>
       </c>
       <c r="D57" t="n">
-        <v>3011.723352444329</v>
+        <v>3011.723594737098</v>
       </c>
       <c r="E57" t="n">
-        <v>3025.223081720487</v>
+        <v>3025.223325099308</v>
       </c>
       <c r="F57" t="n">
         <v>1372218</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>3026.194580078125</v>
+        <v>3026.1943359375</v>
       </c>
       <c r="C60" t="n">
-        <v>3058.875954352457</v>
+        <v>3058.875707575236</v>
       </c>
       <c r="D60" t="n">
-        <v>3020.610119928311</v>
+        <v>3020.609876238216</v>
       </c>
       <c r="E60" t="n">
-        <v>3036.975111038191</v>
+        <v>3036.974866027837</v>
       </c>
       <c r="F60" t="n">
         <v>1303530</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>3048.531982421875</v>
+        <v>3048.5322265625</v>
       </c>
       <c r="C61" t="n">
-        <v>3059.312511832136</v>
+        <v>3059.312756836116</v>
       </c>
       <c r="D61" t="n">
-        <v>3014.734052933054</v>
+        <v>3014.734294366985</v>
       </c>
       <c r="E61" t="n">
-        <v>3038.917095086589</v>
+        <v>3038.917338457209</v>
       </c>
       <c r="F61" t="n">
         <v>1740616</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>3113.60302734375</v>
+        <v>3113.603271484375</v>
       </c>
       <c r="C62" t="n">
-        <v>3120.498715365942</v>
+        <v>3120.498960047264</v>
       </c>
       <c r="D62" t="n">
-        <v>3061.254886658402</v>
+        <v>3061.255126694359</v>
       </c>
       <c r="E62" t="n">
-        <v>3098.112270374567</v>
+        <v>3098.112513300547</v>
       </c>
       <c r="F62" t="n">
         <v>2382581</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>3146.52734375</v>
+        <v>3146.527587890625</v>
       </c>
       <c r="C64" t="n">
-        <v>3170.370605298204</v>
+        <v>3170.37085128884</v>
       </c>
       <c r="D64" t="n">
-        <v>3093.790574248914</v>
+        <v>3093.790814297667</v>
       </c>
       <c r="E64" t="n">
-        <v>3093.790574248914</v>
+        <v>3093.790814297667</v>
       </c>
       <c r="F64" t="n">
         <v>2655065</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>3127.9775390625</v>
+        <v>3127.977294921875</v>
       </c>
       <c r="C65" t="n">
-        <v>3163.57254534825</v>
+        <v>3163.572298429412</v>
       </c>
       <c r="D65" t="n">
-        <v>3122.441686760304</v>
+        <v>3122.441443051755</v>
       </c>
       <c r="E65" t="n">
-        <v>3132.153791540274</v>
+        <v>3132.153547073689</v>
       </c>
       <c r="F65" t="n">
         <v>1703464</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>3148.32421875</v>
+        <v>3148.323974609375</v>
       </c>
       <c r="C68" t="n">
-        <v>3167.068627609424</v>
+        <v>3167.068382015241</v>
       </c>
       <c r="D68" t="n">
-        <v>3106.902188450224</v>
+        <v>3106.90194752172</v>
       </c>
       <c r="E68" t="n">
-        <v>3135.018683183398</v>
+        <v>3135.018440074567</v>
       </c>
       <c r="F68" t="n">
         <v>2417727</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>3097.04443359375</v>
+        <v>3097.044677734375</v>
       </c>
       <c r="C69" t="n">
-        <v>3137.009647414966</v>
+        <v>3137.009894706056</v>
       </c>
       <c r="D69" t="n">
-        <v>3088.449126557149</v>
+        <v>3088.449370020204</v>
       </c>
       <c r="E69" t="n">
-        <v>3117.585439071839</v>
+        <v>3117.585684831716</v>
       </c>
       <c r="F69" t="n">
         <v>4174070</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>3049.114990234375</v>
+        <v>3049.115234375</v>
       </c>
       <c r="C70" t="n">
-        <v>3072.326823488545</v>
+        <v>3072.327069487726</v>
       </c>
       <c r="D70" t="n">
-        <v>2981.858671370311</v>
+        <v>2981.858910125766</v>
       </c>
       <c r="E70" t="n">
-        <v>3043.870549023313</v>
+        <v>3043.870792744019</v>
       </c>
       <c r="F70" t="n">
         <v>5505048</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>3040.61669921875</v>
+        <v>3040.616943359375</v>
       </c>
       <c r="C71" t="n">
-        <v>3065.96538333113</v>
+        <v>3065.96562950708</v>
       </c>
       <c r="D71" t="n">
-        <v>3021.046906180649</v>
+        <v>3021.047148749954</v>
       </c>
       <c r="E71" t="n">
-        <v>3064.119941462136</v>
+        <v>3064.12018748991</v>
       </c>
       <c r="F71" t="n">
         <v>2617302</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>3000.651611328125</v>
+        <v>3000.65185546875</v>
       </c>
       <c r="C72" t="n">
-        <v>3049.600518435319</v>
+        <v>3049.600766558551</v>
       </c>
       <c r="D72" t="n">
-        <v>2983.072609036332</v>
+        <v>2983.072851746685</v>
       </c>
       <c r="E72" t="n">
-        <v>3040.616822640565</v>
+        <v>3040.617070032861</v>
       </c>
       <c r="F72" t="n">
         <v>3298034</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>3069.8505859375</v>
+        <v>3069.850341796875</v>
       </c>
       <c r="C74" t="n">
-        <v>3073.34680122225</v>
+        <v>3073.346556803577</v>
       </c>
       <c r="D74" t="n">
-        <v>3011.529352128505</v>
+        <v>3011.52911262608</v>
       </c>
       <c r="E74" t="n">
-        <v>3020.464440672096</v>
+        <v>3020.464200459077</v>
       </c>
       <c r="F74" t="n">
         <v>1929184</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>3106.076416015625</v>
+        <v>3106.076171875</v>
       </c>
       <c r="C77" t="n">
-        <v>3116.031322519797</v>
+        <v>3116.031077596707</v>
       </c>
       <c r="D77" t="n">
-        <v>3089.420252660726</v>
+        <v>3089.420009829291</v>
       </c>
       <c r="E77" t="n">
-        <v>3089.420252660726</v>
+        <v>3089.420009829291</v>
       </c>
       <c r="F77" t="n">
         <v>2000029</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>3096.169921875</v>
+        <v>3096.170166015625</v>
       </c>
       <c r="C78" t="n">
-        <v>3107.096038079644</v>
+        <v>3107.09628308182</v>
       </c>
       <c r="D78" t="n">
-        <v>3079.367935755701</v>
+        <v>3079.368178571448</v>
       </c>
       <c r="E78" t="n">
-        <v>3093.304898825939</v>
+        <v>3093.30514274065</v>
       </c>
       <c r="F78" t="n">
         <v>2434446</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>3126.56884765625</v>
+        <v>3126.569091796875</v>
       </c>
       <c r="C79" t="n">
-        <v>3134.338530278367</v>
+        <v>3134.338775025694</v>
       </c>
       <c r="D79" t="n">
-        <v>3104.231010117664</v>
+        <v>3104.231252514021</v>
       </c>
       <c r="E79" t="n">
-        <v>3108.261438133129</v>
+        <v>3108.261680844204</v>
       </c>
       <c r="F79" t="n">
         <v>2931312</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>3126.715087890625</v>
+        <v>3126.714599609375</v>
       </c>
       <c r="C80" t="n">
-        <v>3141.866067015292</v>
+        <v>3141.865576367999</v>
       </c>
       <c r="D80" t="n">
-        <v>3117.58580374624</v>
+        <v>3117.585316890658</v>
       </c>
       <c r="E80" t="n">
-        <v>3141.866067015292</v>
+        <v>3141.865576367999</v>
       </c>
       <c r="F80" t="n">
         <v>2321159</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>3088.3515625</v>
+        <v>3088.351806640625</v>
       </c>
       <c r="C81" t="n">
-        <v>3123.412349451472</v>
+        <v>3123.412596363726</v>
       </c>
       <c r="D81" t="n">
-        <v>3081.79589292326</v>
+        <v>3081.796136545645</v>
       </c>
       <c r="E81" t="n">
-        <v>3123.412349451472</v>
+        <v>3123.412596363726</v>
       </c>
       <c r="F81" t="n">
         <v>2468285</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>3127.9775390625</v>
+        <v>3127.977294921875</v>
       </c>
       <c r="C82" t="n">
-        <v>3131.619578354989</v>
+        <v>3131.6193339301</v>
       </c>
       <c r="D82" t="n">
-        <v>3086.506899074416</v>
+        <v>3086.5066581706</v>
       </c>
       <c r="E82" t="n">
-        <v>3088.594906757336</v>
+        <v>3088.59466569055</v>
       </c>
       <c r="F82" t="n">
         <v>1953253</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>3157.0166015625</v>
+        <v>3157.016845703125</v>
       </c>
       <c r="C84" t="n">
-        <v>3161.144245736976</v>
+        <v>3161.144490196803</v>
       </c>
       <c r="D84" t="n">
-        <v>3138.272193536028</v>
+        <v>3138.272436227098</v>
       </c>
       <c r="E84" t="n">
-        <v>3151.577728511367</v>
+        <v>3151.57797223139</v>
       </c>
       <c r="F84" t="n">
         <v>928235</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>3188.726806640625</v>
+        <v>3188.7265625</v>
       </c>
       <c r="C85" t="n">
-        <v>3203.052161212452</v>
+        <v>3203.051915975025</v>
       </c>
       <c r="D85" t="n">
-        <v>3152.549216281267</v>
+        <v>3152.548974910531</v>
       </c>
       <c r="E85" t="n">
-        <v>3158.959300290383</v>
+        <v>3158.959058428867</v>
       </c>
       <c r="F85" t="n">
         <v>1107375</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>3192.17431640625</v>
+        <v>3192.174560546875</v>
       </c>
       <c r="C86" t="n">
-        <v>3211.307113421918</v>
+        <v>3211.307359025838</v>
       </c>
       <c r="D86" t="n">
-        <v>3172.021701071756</v>
+        <v>3172.021943671089</v>
       </c>
       <c r="E86" t="n">
-        <v>3195.282142192079</v>
+        <v>3195.282386570394</v>
       </c>
       <c r="F86" t="n">
         <v>1559987</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>3187.65771484375</v>
+        <v>3187.658203125</v>
       </c>
       <c r="C87" t="n">
-        <v>3214.414605389359</v>
+        <v>3214.415097769195</v>
       </c>
       <c r="D87" t="n">
-        <v>3177.800025379944</v>
+        <v>3177.800512151206</v>
       </c>
       <c r="E87" t="n">
-        <v>3213.734805618043</v>
+        <v>3213.735297893747</v>
       </c>
       <c r="F87" t="n">
         <v>1719623</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>3164.348876953125</v>
+        <v>3164.34912109375</v>
       </c>
       <c r="C90" t="n">
-        <v>3190.425969447708</v>
+        <v>3190.426215600273</v>
       </c>
       <c r="D90" t="n">
-        <v>3156.870604751533</v>
+        <v>3156.870848315183</v>
       </c>
       <c r="E90" t="n">
-        <v>3162.455064210993</v>
+        <v>3162.455308205503</v>
       </c>
       <c r="F90" t="n">
         <v>986306</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>3107.727783203125</v>
+        <v>3107.7275390625</v>
       </c>
       <c r="C92" t="n">
-        <v>3135.989864393706</v>
+        <v>3135.989618032834</v>
       </c>
       <c r="D92" t="n">
-        <v>3103.017317782068</v>
+        <v>3103.017074011493</v>
       </c>
       <c r="E92" t="n">
-        <v>3133.076233109403</v>
+        <v>3133.075986977424</v>
       </c>
       <c r="F92" t="n">
         <v>1369364</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>3130.065673828125</v>
+        <v>3130.0654296875</v>
       </c>
       <c r="C93" t="n">
-        <v>3141.380180654285</v>
+        <v>3141.379935631145</v>
       </c>
       <c r="D93" t="n">
-        <v>3110.835659617378</v>
+        <v>3110.835416976667</v>
       </c>
       <c r="E93" t="n">
-        <v>3117.585524779797</v>
+        <v>3117.585281612606</v>
       </c>
       <c r="F93" t="n">
         <v>1152449</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>3203.731689453125</v>
+        <v>3203.73193359375</v>
       </c>
       <c r="C94" t="n">
-        <v>3213.200990824737</v>
+        <v>3213.201235686971</v>
       </c>
       <c r="D94" t="n">
-        <v>3124.432455375622</v>
+        <v>3124.432693473243</v>
       </c>
       <c r="E94" t="n">
-        <v>3137.009582595535</v>
+        <v>3137.009821651596</v>
       </c>
       <c r="F94" t="n">
         <v>1333243</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>3202.129150390625</v>
+        <v>3202.12890625</v>
       </c>
       <c r="C95" t="n">
-        <v>3232.139455534253</v>
+        <v>3232.139209105546</v>
       </c>
       <c r="D95" t="n">
-        <v>3195.379285841507</v>
+        <v>3195.379042215513</v>
       </c>
       <c r="E95" t="n">
-        <v>3210.821435650966</v>
+        <v>3210.821190847613</v>
       </c>
       <c r="F95" t="n">
         <v>1687418</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>3198.681640625</v>
+        <v>3198.681396484375</v>
       </c>
       <c r="C97" t="n">
-        <v>3210.821771339381</v>
+        <v>3210.821526272156</v>
       </c>
       <c r="D97" t="n">
-        <v>3173.041779401</v>
+        <v>3173.041537217347</v>
       </c>
       <c r="E97" t="n">
-        <v>3199.167245853575</v>
+        <v>3199.167001675886</v>
       </c>
       <c r="F97" t="n">
         <v>1374917</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>3224.7587890625</v>
+        <v>3224.758544921875</v>
       </c>
       <c r="C99" t="n">
-        <v>3274.921715151167</v>
+        <v>3274.921467212798</v>
       </c>
       <c r="D99" t="n">
-        <v>3216.649086767694</v>
+        <v>3216.64884324104</v>
       </c>
       <c r="E99" t="n">
-        <v>3264.044205275305</v>
+        <v>3264.043958160452</v>
       </c>
       <c r="F99" t="n">
         <v>1210372</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>3220.727783203125</v>
+        <v>3220.72802734375</v>
       </c>
       <c r="C100" t="n">
-        <v>3231.168294685914</v>
+        <v>3231.168539617961</v>
       </c>
       <c r="D100" t="n">
-        <v>3206.305451468463</v>
+        <v>3206.305694515833</v>
       </c>
       <c r="E100" t="n">
-        <v>3219.562378180916</v>
+        <v>3219.5626222332</v>
       </c>
       <c r="F100" t="n">
         <v>1344224</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>3194.796630859375</v>
+        <v>3194.79638671875</v>
       </c>
       <c r="C101" t="n">
-        <v>3231.896820949936</v>
+        <v>3231.896573974181</v>
       </c>
       <c r="D101" t="n">
-        <v>3171.147562626123</v>
+        <v>3171.147320292717</v>
       </c>
       <c r="E101" t="n">
-        <v>3213.735233778286</v>
+        <v>3213.734988190407</v>
       </c>
       <c r="F101" t="n">
         <v>5815424</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>3180.61669921875</v>
+        <v>3180.616943359375</v>
       </c>
       <c r="C106" t="n">
-        <v>3184.453169813507</v>
+        <v>3184.453414248615</v>
       </c>
       <c r="D106" t="n">
-        <v>3147.692763003402</v>
+        <v>3147.693004616822</v>
       </c>
       <c r="E106" t="n">
-        <v>3159.347287272467</v>
+        <v>3159.347529780475</v>
       </c>
       <c r="F106" t="n">
         <v>1567196</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>3143.273681640625</v>
+        <v>3143.2734375</v>
       </c>
       <c r="C107" t="n">
-        <v>3175.857836220559</v>
+        <v>3175.857589549096</v>
       </c>
       <c r="D107" t="n">
-        <v>3139.92305336424</v>
+        <v>3139.922809483861</v>
       </c>
       <c r="E107" t="n">
-        <v>3167.116943093346</v>
+        <v>3167.116697100796</v>
       </c>
       <c r="F107" t="n">
         <v>1759366</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>3116.905517578125</v>
+        <v>3116.9052734375</v>
       </c>
       <c r="C108" t="n">
-        <v>3156.433732591583</v>
+        <v>3156.433485354796</v>
       </c>
       <c r="D108" t="n">
-        <v>3113.069284002434</v>
+        <v>3113.069040162293</v>
       </c>
       <c r="E108" t="n">
-        <v>3151.577680695288</v>
+        <v>3151.577433838866</v>
       </c>
       <c r="F108" t="n">
         <v>1775689</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>3153.4228515625</v>
+        <v>3153.423095703125</v>
       </c>
       <c r="C109" t="n">
-        <v>3160.706929328386</v>
+        <v>3160.70717403295</v>
       </c>
       <c r="D109" t="n">
-        <v>3118.556494167889</v>
+        <v>3118.556735609132</v>
       </c>
       <c r="E109" t="n">
-        <v>3122.441335643029</v>
+        <v>3122.441577385039</v>
       </c>
       <c r="F109" t="n">
         <v>2324605</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>3146.93505859375</v>
+        <v>3146.935302734375</v>
       </c>
       <c r="C112" t="n">
-        <v>3177.413160222681</v>
+        <v>3177.413406727811</v>
       </c>
       <c r="D112" t="n">
-        <v>3140.770881052136</v>
+        <v>3140.771124714541</v>
       </c>
       <c r="E112" t="n">
-        <v>3175.30962418581</v>
+        <v>3175.309870527746</v>
       </c>
       <c r="F112" t="n">
         <v>2273810</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>3106.427978515625</v>
+        <v>3106.427734375</v>
       </c>
       <c r="C113" t="n">
-        <v>3130.399595831008</v>
+        <v>3130.399349806404</v>
       </c>
       <c r="D113" t="n">
-        <v>3087.935683565319</v>
+        <v>3087.935440878042</v>
       </c>
       <c r="E113" t="n">
-        <v>3128.051451317594</v>
+        <v>3128.051205477535</v>
       </c>
       <c r="F113" t="n">
         <v>4156189</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>3141.162353515625</v>
+        <v>3141.16259765625</v>
       </c>
       <c r="C114" t="n">
-        <v>3145.565303621779</v>
+        <v>3145.565548104614</v>
       </c>
       <c r="D114" t="n">
-        <v>3106.525908230682</v>
+        <v>3106.526149679257</v>
       </c>
       <c r="E114" t="n">
-        <v>3121.202408584527</v>
+        <v>3121.202651173805</v>
       </c>
       <c r="F114" t="n">
         <v>1468186</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>3158.08935546875</v>
+        <v>3158.089111328125</v>
       </c>
       <c r="C115" t="n">
-        <v>3162.785883441968</v>
+        <v>3162.785638938271</v>
       </c>
       <c r="D115" t="n">
-        <v>3132.014201585403</v>
+        <v>3132.013959460555</v>
       </c>
       <c r="E115" t="n">
-        <v>3144.684866011596</v>
+        <v>3144.684622907224</v>
       </c>
       <c r="F115" t="n">
         <v>1528452</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>3120.85986328125</v>
+        <v>3120.860107421875</v>
       </c>
       <c r="C119" t="n">
-        <v>3144.586872201245</v>
+        <v>3144.587118198001</v>
       </c>
       <c r="D119" t="n">
-        <v>3104.569043428582</v>
+        <v>3104.569286294799</v>
       </c>
       <c r="E119" t="n">
-        <v>3135.8789108694</v>
+        <v>3135.879156184945</v>
       </c>
       <c r="F119" t="n">
         <v>1978803</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>3146.103515625</v>
+        <v>3146.103759765625</v>
       </c>
       <c r="C121" t="n">
-        <v>3161.26923278207</v>
+        <v>3161.269478099569</v>
       </c>
       <c r="D121" t="n">
-        <v>3124.529012152295</v>
+        <v>3124.529254618718</v>
       </c>
       <c r="E121" t="n">
-        <v>3138.814234831023</v>
+        <v>3138.814478405993</v>
       </c>
       <c r="F121" t="n">
         <v>1575872</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>3231.031982421875</v>
+        <v>3231.03173828125</v>
       </c>
       <c r="C122" t="n">
-        <v>3238.614841946069</v>
+        <v>3238.614597232474</v>
       </c>
       <c r="D122" t="n">
-        <v>3144.783166093608</v>
+        <v>3144.782928470046</v>
       </c>
       <c r="E122" t="n">
-        <v>3150.55582811672</v>
+        <v>3150.555590056968</v>
       </c>
       <c r="F122" t="n">
         <v>2672406</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>3237.48974609375</v>
+        <v>3237.489501953125</v>
       </c>
       <c r="C124" t="n">
-        <v>3243.507016501821</v>
+        <v>3243.50677190743</v>
       </c>
       <c r="D124" t="n">
-        <v>3206.620121736285</v>
+        <v>3206.619879923552</v>
       </c>
       <c r="E124" t="n">
-        <v>3219.0461792733</v>
+        <v>3219.045936523513</v>
       </c>
       <c r="F124" t="n">
         <v>1656681</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>3248.35009765625</v>
+        <v>3248.349853515625</v>
       </c>
       <c r="C125" t="n">
-        <v>3257.204968189541</v>
+        <v>3257.204723383399</v>
       </c>
       <c r="D125" t="n">
-        <v>3233.722565294813</v>
+        <v>3233.722322253569</v>
       </c>
       <c r="E125" t="n">
-        <v>3248.399067104018</v>
+        <v>3248.398822959713</v>
       </c>
       <c r="F125" t="n">
         <v>1453008</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>3251.236328125</v>
+        <v>3251.236083984375</v>
       </c>
       <c r="C126" t="n">
-        <v>3256.666681401709</v>
+        <v>3256.66643685331</v>
       </c>
       <c r="D126" t="n">
-        <v>3230.787165119416</v>
+        <v>3230.786922514353</v>
       </c>
       <c r="E126" t="n">
-        <v>3235.239084972407</v>
+        <v>3235.238842033041</v>
       </c>
       <c r="F126" t="n">
         <v>1848238</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>3257.44921875</v>
+        <v>3257.449462890625</v>
       </c>
       <c r="C127" t="n">
-        <v>3284.502805229886</v>
+        <v>3284.503051398135</v>
       </c>
       <c r="D127" t="n">
-        <v>3230.786910058572</v>
+        <v>3230.787152200899</v>
       </c>
       <c r="E127" t="n">
-        <v>3230.786910058572</v>
+        <v>3230.787152200899</v>
       </c>
       <c r="F127" t="n">
         <v>1789326</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>3201.825439453125</v>
+        <v>3201.8251953125</v>
       </c>
       <c r="C129" t="n">
-        <v>3223.938130373963</v>
+        <v>3223.937884547235</v>
       </c>
       <c r="D129" t="n">
-        <v>3190.47575506594</v>
+        <v>3190.475511790733</v>
       </c>
       <c r="E129" t="n">
-        <v>3223.938130373963</v>
+        <v>3223.937884547235</v>
       </c>
       <c r="F129" t="n">
         <v>1110172</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>3189.59521484375</v>
+        <v>3189.5947265625</v>
       </c>
       <c r="C130" t="n">
-        <v>3218.214394213983</v>
+        <v>3218.213901551547</v>
       </c>
       <c r="D130" t="n">
-        <v>3180.006757813158</v>
+        <v>3180.006270999763</v>
       </c>
       <c r="E130" t="n">
-        <v>3210.191287430563</v>
+        <v>3210.190795996349</v>
       </c>
       <c r="F130" t="n">
         <v>1515240</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>3268.505859375</v>
+        <v>3268.506103515625</v>
       </c>
       <c r="C131" t="n">
-        <v>3294.825623228862</v>
+        <v>3294.825869335438</v>
       </c>
       <c r="D131" t="n">
-        <v>3202.168024700624</v>
+        <v>3202.168263886153</v>
       </c>
       <c r="E131" t="n">
-        <v>3213.17540084542</v>
+        <v>3213.175640853144</v>
       </c>
       <c r="F131" t="n">
         <v>4585146</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>3416.395751953125</v>
+        <v>3416.39599609375</v>
       </c>
       <c r="C133" t="n">
-        <v>3473.340526340381</v>
+        <v>3473.340774550362</v>
       </c>
       <c r="D133" t="n">
-        <v>3402.06179862563</v>
+        <v>3402.062041741929</v>
       </c>
       <c r="E133" t="n">
-        <v>3434.301130408097</v>
+        <v>3434.301375828267</v>
       </c>
       <c r="F133" t="n">
         <v>2743228</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>3395.212646484375</v>
+        <v>3395.212890625</v>
       </c>
       <c r="C135" t="n">
-        <v>3441.003374399379</v>
+        <v>3441.003621832693</v>
       </c>
       <c r="D135" t="n">
-        <v>3371.338729752886</v>
+        <v>3371.338972176802</v>
       </c>
       <c r="E135" t="n">
-        <v>3424.516677132198</v>
+        <v>3424.516923379997</v>
       </c>
       <c r="F135" t="n">
         <v>2405370</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>3397.420166015625</v>
+        <v>3397.419921875</v>
       </c>
       <c r="C136" t="n">
-        <v>3412.723274661613</v>
+        <v>3412.723029421298</v>
       </c>
       <c r="D136" t="n">
-        <v>3370.688523299525</v>
+        <v>3370.688281079852</v>
       </c>
       <c r="E136" t="n">
-        <v>3387.414241228534</v>
+        <v>3387.413997806941</v>
       </c>
       <c r="F136" t="n">
         <v>1715404</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>3304.227294921875</v>
+        <v>3304.2275390625</v>
       </c>
       <c r="C137" t="n">
-        <v>3369.560267232548</v>
+        <v>3369.560516200454</v>
       </c>
       <c r="D137" t="n">
-        <v>3295.153251031794</v>
+        <v>3295.153494501963</v>
       </c>
       <c r="E137" t="n">
-        <v>3339.297248334889</v>
+        <v>3339.297495066741</v>
       </c>
       <c r="F137" t="n">
         <v>3770223</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>3330.17431640625</v>
+        <v>3330.173828125</v>
       </c>
       <c r="C138" t="n">
-        <v>3348.518552980557</v>
+        <v>3348.518062009614</v>
       </c>
       <c r="D138" t="n">
-        <v>3307.955265502865</v>
+        <v>3307.954780479446</v>
       </c>
       <c r="E138" t="n">
-        <v>3316.685871940359</v>
+        <v>3316.685385636829</v>
       </c>
       <c r="F138" t="n">
         <v>1680132</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>3334.490478515625</v>
+        <v>3334.490234375</v>
       </c>
       <c r="C139" t="n">
-        <v>3341.995102125725</v>
+        <v>3341.994857435636</v>
       </c>
       <c r="D139" t="n">
-        <v>3315.900997743569</v>
+        <v>3315.900754964006</v>
       </c>
       <c r="E139" t="n">
-        <v>3332.871960999842</v>
+        <v>3332.87171697772</v>
       </c>
       <c r="F139" t="n">
         <v>1272980</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>3291.572509765625</v>
+        <v>3291.572265625</v>
       </c>
       <c r="C142" t="n">
-        <v>3329.144003928595</v>
+        <v>3329.143757001239</v>
       </c>
       <c r="D142" t="n">
-        <v>3267.636749458917</v>
+        <v>3267.636507093641</v>
       </c>
       <c r="E142" t="n">
-        <v>3320.60954575756</v>
+        <v>3320.609299463217</v>
       </c>
       <c r="F142" t="n">
         <v>2599831</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>3386.38427734375</v>
+        <v>3386.384033203125</v>
       </c>
       <c r="C144" t="n">
-        <v>3394.18300252829</v>
+        <v>3394.182757825417</v>
       </c>
       <c r="D144" t="n">
-        <v>3350.039003940494</v>
+        <v>3350.038762420173</v>
       </c>
       <c r="E144" t="n">
-        <v>3350.039003940494</v>
+        <v>3350.038762420173</v>
       </c>
       <c r="F144" t="n">
         <v>1956167</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>3335.275146484375</v>
+        <v>3335.27490234375</v>
       </c>
       <c r="C146" t="n">
-        <v>3367.941752413348</v>
+        <v>3367.941505881542</v>
       </c>
       <c r="D146" t="n">
-        <v>3303.93295627413</v>
+        <v>3303.932714427739</v>
       </c>
       <c r="E146" t="n">
-        <v>3354.943797641783</v>
+        <v>3354.943552061421</v>
       </c>
       <c r="F146" t="n">
         <v>2026351</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>3378.0458984375</v>
+        <v>3378.045654296875</v>
       </c>
       <c r="C147" t="n">
-        <v>3404.973689134202</v>
+        <v>3404.973443047432</v>
       </c>
       <c r="D147" t="n">
-        <v>3336.55049270173</v>
+        <v>3336.550251560092</v>
       </c>
       <c r="E147" t="n">
-        <v>3336.55049270173</v>
+        <v>3336.550251560092</v>
       </c>
       <c r="F147" t="n">
         <v>2248493</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>3404.581298828125</v>
+        <v>3404.58154296875</v>
       </c>
       <c r="C149" t="n">
-        <v>3423.563073610777</v>
+        <v>3423.563319112574</v>
       </c>
       <c r="D149" t="n">
-        <v>3390.847611038575</v>
+        <v>3390.847854194365</v>
       </c>
       <c r="E149" t="n">
-        <v>3417.775400983784</v>
+        <v>3417.775646070551</v>
       </c>
       <c r="F149" t="n">
         <v>1634225</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>3383.19580078125</v>
+        <v>3383.196044921875</v>
       </c>
       <c r="C152" t="n">
-        <v>3400.706108309558</v>
+        <v>3400.706353713774</v>
       </c>
       <c r="D152" t="n">
-        <v>3349.057730323295</v>
+        <v>3349.057972000423</v>
       </c>
       <c r="E152" t="n">
-        <v>3372.699387721423</v>
+        <v>3372.699631104598</v>
       </c>
       <c r="F152" t="n">
         <v>1679974</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>3303.050048828125</v>
+        <v>3303.05029296875</v>
       </c>
       <c r="C156" t="n">
-        <v>3345.133895586907</v>
+        <v>3345.134142838105</v>
       </c>
       <c r="D156" t="n">
-        <v>3292.651589600426</v>
+        <v>3292.651832972463</v>
       </c>
       <c r="E156" t="n">
-        <v>3345.133895586907</v>
+        <v>3345.134142838105</v>
       </c>
       <c r="F156" t="n">
         <v>2526749</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>3316.979736328125</v>
+        <v>3316.97998046875</v>
       </c>
       <c r="C161" t="n">
-        <v>3321.394135700535</v>
+        <v>3321.394380166074</v>
       </c>
       <c r="D161" t="n">
-        <v>3286.520332759198</v>
+        <v>3286.52057465791</v>
       </c>
       <c r="E161" t="n">
-        <v>3310.799529307452</v>
+        <v>3310.799772993194</v>
       </c>
       <c r="F161" t="n">
         <v>1158046</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>3311.927734375</v>
+        <v>3311.927978515625</v>
       </c>
       <c r="C163" t="n">
-        <v>3325.07297912716</v>
+        <v>3325.073224236794</v>
       </c>
       <c r="D163" t="n">
-        <v>3300.989928923233</v>
+        <v>3300.990172257571</v>
       </c>
       <c r="E163" t="n">
-        <v>3316.734668756923</v>
+        <v>3316.734913251894</v>
       </c>
       <c r="F163" t="n">
         <v>944517</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>3314.91943359375</v>
+        <v>3314.919677734375</v>
       </c>
       <c r="C166" t="n">
-        <v>3324.533061902206</v>
+        <v>3324.533306750865</v>
       </c>
       <c r="D166" t="n">
-        <v>3292.945631314264</v>
+        <v>3292.94587383654</v>
       </c>
       <c r="E166" t="n">
-        <v>3301.970577268464</v>
+        <v>3301.970820455419</v>
       </c>
       <c r="F166" t="n">
         <v>1277950</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>3353.471923828125</v>
+        <v>3353.472412109375</v>
       </c>
       <c r="C167" t="n">
-        <v>3367.549048179281</v>
+        <v>3367.549538510226</v>
       </c>
       <c r="D167" t="n">
-        <v>3305.943607032534</v>
+        <v>3305.944088393439</v>
       </c>
       <c r="E167" t="n">
-        <v>3313.742331049117</v>
+        <v>3313.742813545552</v>
       </c>
       <c r="F167" t="n">
         <v>1828332</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>3364.6552734375</v>
+        <v>3364.655517578125</v>
       </c>
       <c r="C169" t="n">
-        <v>3378.388961057928</v>
+        <v>3378.389206195074</v>
       </c>
       <c r="D169" t="n">
-        <v>3333.46037458259</v>
+        <v>3333.460616459702</v>
       </c>
       <c r="E169" t="n">
-        <v>3368.677377753513</v>
+        <v>3368.677622185984</v>
       </c>
       <c r="F169" t="n">
         <v>1314818</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>3512.68505859375</v>
+        <v>3512.685302734375</v>
       </c>
       <c r="C173" t="n">
-        <v>3521.611812124763</v>
+        <v>3521.61205688582</v>
       </c>
       <c r="D173" t="n">
-        <v>3416.745389926486</v>
+        <v>3416.745627399057</v>
       </c>
       <c r="E173" t="n">
-        <v>3425.57418938366</v>
+        <v>3425.574427469856</v>
       </c>
       <c r="F173" t="n">
         <v>4476016</v>
@@ -3941,16 +3941,16 @@
         <v>45184</v>
       </c>
       <c r="B176" t="n">
-        <v>3529.852294921875</v>
+        <v>3529.85205078125</v>
       </c>
       <c r="C176" t="n">
-        <v>3538.730191481812</v>
+        <v>3538.729946727151</v>
       </c>
       <c r="D176" t="n">
-        <v>3494.684146694131</v>
+        <v>3494.683904985895</v>
       </c>
       <c r="E176" t="n">
-        <v>3499.981570255846</v>
+        <v>3499.981328181217</v>
       </c>
       <c r="F176" t="n">
         <v>2952897</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>3537.552734375</v>
+        <v>3537.552490234375</v>
       </c>
       <c r="C177" t="n">
-        <v>3550.452735182786</v>
+        <v>3550.452490151881</v>
       </c>
       <c r="D177" t="n">
-        <v>3507.240618409713</v>
+        <v>3507.240376361048</v>
       </c>
       <c r="E177" t="n">
-        <v>3511.949359398553</v>
+        <v>3511.949117024919</v>
       </c>
       <c r="F177" t="n">
         <v>1395753</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>3517.099609375</v>
+        <v>3517.099365234375</v>
       </c>
       <c r="C179" t="n">
-        <v>3536.424823339715</v>
+        <v>3536.424577857624</v>
       </c>
       <c r="D179" t="n">
-        <v>3460.889535850906</v>
+        <v>3460.889295612122</v>
       </c>
       <c r="E179" t="n">
-        <v>3520.287787093683</v>
+        <v>3520.28754273175</v>
       </c>
       <c r="F179" t="n">
         <v>2004073</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>3509.1044921875</v>
+        <v>3509.104248046875</v>
       </c>
       <c r="C181" t="n">
-        <v>3551.139484927866</v>
+        <v>3551.13923786272</v>
       </c>
       <c r="D181" t="n">
-        <v>3490.956403659553</v>
+        <v>3490.956160781554</v>
       </c>
       <c r="E181" t="n">
-        <v>3533.972374158187</v>
+        <v>3533.972128287417</v>
       </c>
       <c r="F181" t="n">
         <v>1238778</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>3517.491455078125</v>
+        <v>3517.49169921875</v>
       </c>
       <c r="C182" t="n">
-        <v>3526.565498194544</v>
+        <v>3526.565742964976</v>
       </c>
       <c r="D182" t="n">
-        <v>3468.736914557317</v>
+        <v>3468.737155314006</v>
       </c>
       <c r="E182" t="n">
-        <v>3499.735903596867</v>
+        <v>3499.736146505122</v>
       </c>
       <c r="F182" t="n">
         <v>1726062</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>3521.023193359375</v>
+        <v>3521.0234375</v>
       </c>
       <c r="C183" t="n">
-        <v>3545.253293871426</v>
+        <v>3545.253539692118</v>
       </c>
       <c r="D183" t="n">
-        <v>3488.062247899989</v>
+        <v>3488.062489755168</v>
       </c>
       <c r="E183" t="n">
-        <v>3521.709829828008</v>
+        <v>3521.710074016243</v>
       </c>
       <c r="F183" t="n">
         <v>1541134</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>3461.477783203125</v>
+        <v>3461.47802734375</v>
       </c>
       <c r="C185" t="n">
-        <v>3500.569598311291</v>
+        <v>3500.569845209091</v>
       </c>
       <c r="D185" t="n">
-        <v>3438.866200787396</v>
+        <v>3438.86644333321</v>
       </c>
       <c r="E185" t="n">
-        <v>3469.914047177303</v>
+        <v>3469.914291912944</v>
       </c>
       <c r="F185" t="n">
         <v>2243791</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>3447.008544921875</v>
+        <v>3447.0087890625</v>
       </c>
       <c r="C186" t="n">
-        <v>3466.971297175608</v>
+        <v>3466.971542730132</v>
       </c>
       <c r="D186" t="n">
-        <v>3413.900547950487</v>
+        <v>3413.900789746179</v>
       </c>
       <c r="E186" t="n">
-        <v>3466.971297175608</v>
+        <v>3466.971542730132</v>
       </c>
       <c r="F186" t="n">
         <v>1948148</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>3470.45361328125</v>
+        <v>3470.453857421875</v>
       </c>
       <c r="C187" t="n">
-        <v>3480.508633996714</v>
+        <v>3480.508878844693</v>
       </c>
       <c r="D187" t="n">
-        <v>3411.15356340008</v>
+        <v>3411.153803369045</v>
       </c>
       <c r="E187" t="n">
-        <v>3419.982362077073</v>
+        <v>3419.982602667129</v>
       </c>
       <c r="F187" t="n">
         <v>1788138</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>3552.512939453125</v>
+        <v>3552.512451171875</v>
       </c>
       <c r="C189" t="n">
-        <v>3565.805236655923</v>
+        <v>3565.80474654769</v>
       </c>
       <c r="D189" t="n">
-        <v>3507.044761732833</v>
+        <v>3507.044279701035</v>
       </c>
       <c r="E189" t="n">
-        <v>3522.691309877118</v>
+        <v>3522.690825694753</v>
       </c>
       <c r="F189" t="n">
         <v>2075691</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>3559.86962890625</v>
+        <v>3559.869873046875</v>
       </c>
       <c r="C191" t="n">
-        <v>3578.606397454678</v>
+        <v>3578.606642880296</v>
       </c>
       <c r="D191" t="n">
-        <v>3532.843886772666</v>
+        <v>3532.844129059829</v>
       </c>
       <c r="E191" t="n">
-        <v>3570.807673188471</v>
+        <v>3570.807918079242</v>
       </c>
       <c r="F191" t="n">
         <v>1848148</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>3440.338134765625</v>
+        <v>3440.337890625</v>
       </c>
       <c r="C196" t="n">
-        <v>3466.922488623797</v>
+        <v>3466.922242596636</v>
       </c>
       <c r="D196" t="n">
-        <v>3436.70856491742</v>
+        <v>3436.708321034364</v>
       </c>
       <c r="E196" t="n">
-        <v>3462.851526678578</v>
+        <v>3462.85128094031</v>
       </c>
       <c r="F196" t="n">
         <v>1672065</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>3398.68701171875</v>
+        <v>3398.6865234375</v>
       </c>
       <c r="C198" t="n">
-        <v>3419.537743271627</v>
+        <v>3419.537251994802</v>
       </c>
       <c r="D198" t="n">
-        <v>3394.998826672776</v>
+        <v>3394.998338921399</v>
       </c>
       <c r="E198" t="n">
-        <v>3412.308804535032</v>
+        <v>3412.308314296772</v>
       </c>
       <c r="F198" t="n">
         <v>1514545</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>3353.937255859375</v>
+        <v>3353.93701171875</v>
       </c>
       <c r="C200" t="n">
-        <v>3421.603210019045</v>
+        <v>3421.602960952862</v>
       </c>
       <c r="D200" t="n">
-        <v>3345.233282642669</v>
+        <v>3345.233039135626</v>
       </c>
       <c r="E200" t="n">
-        <v>3415.751337380783</v>
+        <v>3415.751088740572</v>
       </c>
       <c r="F200" t="n">
         <v>1106272</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>3295.712646484375</v>
+        <v>3295.712890625</v>
       </c>
       <c r="C203" t="n">
-        <v>3306.580545497425</v>
+        <v>3306.580790443125</v>
       </c>
       <c r="D203" t="n">
-        <v>3281.99264733043</v>
+        <v>3281.992890454702</v>
       </c>
       <c r="E203" t="n">
-        <v>3294.778354377268</v>
+        <v>3294.778598448682</v>
       </c>
       <c r="F203" t="n">
         <v>1108851</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>3275.74755859375</v>
+        <v>3275.7470703125</v>
       </c>
       <c r="C206" t="n">
-        <v>3316.022731983924</v>
+        <v>3316.022237699277</v>
       </c>
       <c r="D206" t="n">
-        <v>3256.421564713742</v>
+        <v>3256.421079313215</v>
       </c>
       <c r="E206" t="n">
-        <v>3299.696269892662</v>
+        <v>3299.69577804163</v>
       </c>
       <c r="F206" t="n">
         <v>1563475</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>3324.530029296875</v>
+        <v>3324.52978515625</v>
       </c>
       <c r="C209" t="n">
-        <v>3336.381445370714</v>
+        <v>3336.381200359767</v>
       </c>
       <c r="D209" t="n">
-        <v>3303.630313854952</v>
+        <v>3303.630071249122</v>
       </c>
       <c r="E209" t="n">
-        <v>3319.366570187694</v>
+        <v>3319.366326426254</v>
       </c>
       <c r="F209" t="n">
         <v>1099852</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>3314.891357421875</v>
+        <v>3314.89111328125</v>
       </c>
       <c r="C210" t="n">
-        <v>3348.035797631215</v>
+        <v>3348.035551049513</v>
       </c>
       <c r="D210" t="n">
-        <v>3310.514759372861</v>
+        <v>3310.514515554571</v>
       </c>
       <c r="E210" t="n">
-        <v>3322.316951028379</v>
+        <v>3322.316706340862</v>
       </c>
       <c r="F210" t="n">
         <v>1191144</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>3325.808349609375</v>
+        <v>3325.80859375</v>
       </c>
       <c r="C211" t="n">
-        <v>3345.871978586143</v>
+        <v>3345.872224199597</v>
       </c>
       <c r="D211" t="n">
-        <v>3314.00615841923</v>
+        <v>3314.006401693481</v>
       </c>
       <c r="E211" t="n">
-        <v>3315.874742644525</v>
+        <v>3315.874986055946</v>
       </c>
       <c r="F211" t="n">
         <v>992899</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>3292.2705078125</v>
+        <v>3292.270751953125</v>
       </c>
       <c r="C212" t="n">
-        <v>3335.594434604524</v>
+        <v>3335.594681957866</v>
       </c>
       <c r="D212" t="n">
-        <v>3286.959617585397</v>
+        <v>3286.959861332189</v>
       </c>
       <c r="E212" t="n">
-        <v>3334.217608283781</v>
+        <v>3334.217855535022</v>
       </c>
       <c r="F212" t="n">
         <v>2112352</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>3278.501220703125</v>
+        <v>3278.5009765625</v>
       </c>
       <c r="C213" t="n">
-        <v>3292.270444108956</v>
+        <v>3292.270198942977</v>
       </c>
       <c r="D213" t="n">
-        <v>3267.584337643936</v>
+        <v>3267.58409431626</v>
       </c>
       <c r="E213" t="n">
-        <v>3282.97626633326</v>
+        <v>3282.976021859391</v>
       </c>
       <c r="F213" t="n">
         <v>1338557</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>3276.6328125</v>
+        <v>3276.632568359375</v>
       </c>
       <c r="C214" t="n">
-        <v>3300.679730931247</v>
+        <v>3300.679484998896</v>
       </c>
       <c r="D214" t="n">
-        <v>3272.157766629398</v>
+        <v>3272.157522822207</v>
       </c>
       <c r="E214" t="n">
-        <v>3300.679730931247</v>
+        <v>3300.679484998896</v>
       </c>
       <c r="F214" t="n">
         <v>1030990</v>
@@ -4721,16 +4721,16 @@
         <v>45245</v>
       </c>
       <c r="B215" t="n">
-        <v>3348.18359375</v>
+        <v>3348.183349609375</v>
       </c>
       <c r="C215" t="n">
-        <v>3356.740134995571</v>
+        <v>3356.739890231026</v>
       </c>
       <c r="D215" t="n">
-        <v>3300.728946368361</v>
+        <v>3300.728705688002</v>
       </c>
       <c r="E215" t="n">
-        <v>3327.333102405559</v>
+        <v>3327.332859785296</v>
       </c>
       <c r="F215" t="n">
         <v>2059802</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>3440.191162109375</v>
+        <v>3440.191650390625</v>
       </c>
       <c r="C216" t="n">
-        <v>3471.171912736469</v>
+        <v>3471.172405414952</v>
       </c>
       <c r="D216" t="n">
-        <v>3357.919913596603</v>
+        <v>3357.920390200738</v>
       </c>
       <c r="E216" t="n">
-        <v>3373.508736545916</v>
+        <v>3373.509215362641</v>
       </c>
       <c r="F216" t="n">
         <v>3951984</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>3444.7158203125</v>
+        <v>3444.71533203125</v>
       </c>
       <c r="C217" t="n">
-        <v>3466.402397735681</v>
+        <v>3466.401906380404</v>
       </c>
       <c r="D217" t="n">
-        <v>3434.979107240653</v>
+        <v>3434.978620339562</v>
       </c>
       <c r="E217" t="n">
-        <v>3440.191790448464</v>
+        <v>3440.191302808486</v>
       </c>
       <c r="F217" t="n">
         <v>2021292</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>3461.582763671875</v>
+        <v>3461.5830078125</v>
       </c>
       <c r="C218" t="n">
-        <v>3475.646849379535</v>
+        <v>3475.64709451208</v>
       </c>
       <c r="D218" t="n">
-        <v>3433.699991006697</v>
+        <v>3433.700233180788</v>
       </c>
       <c r="E218" t="n">
-        <v>3433.699991006697</v>
+        <v>3433.700233180788</v>
       </c>
       <c r="F218" t="n">
         <v>1475621</v>
@@ -4801,16 +4801,16 @@
         <v>45251</v>
       </c>
       <c r="B219" t="n">
-        <v>3452.337646484375</v>
+        <v>3452.33740234375</v>
       </c>
       <c r="C219" t="n">
-        <v>3480.712177744388</v>
+        <v>3480.711931597187</v>
       </c>
       <c r="D219" t="n">
-        <v>3443.289347749746</v>
+        <v>3443.289104248994</v>
       </c>
       <c r="E219" t="n">
-        <v>3461.582840502351</v>
+        <v>3461.58259570793</v>
       </c>
       <c r="F219" t="n">
         <v>1807236</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>3471.958984375</v>
+        <v>3471.958740234375</v>
       </c>
       <c r="C220" t="n">
-        <v>3474.417774426713</v>
+        <v>3474.417530113191</v>
       </c>
       <c r="D220" t="n">
-        <v>3423.717715653369</v>
+        <v>3423.717474904965</v>
       </c>
       <c r="E220" t="n">
-        <v>3442.306072397831</v>
+        <v>3442.305830342334</v>
       </c>
       <c r="F220" t="n">
         <v>1798051</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>3450.419677734375</v>
+        <v>3450.419921875</v>
       </c>
       <c r="C221" t="n">
-        <v>3485.580371379071</v>
+        <v>3485.580618007553</v>
       </c>
       <c r="D221" t="n">
-        <v>3442.305671508676</v>
+        <v>3442.30591507518</v>
       </c>
       <c r="E221" t="n">
-        <v>3471.811148693036</v>
+        <v>3471.811394347253</v>
       </c>
       <c r="F221" t="n">
         <v>2729804</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>3455.829345703125</v>
+        <v>3455.8291015625</v>
       </c>
       <c r="C224" t="n">
-        <v>3460.009288703975</v>
+        <v>3460.009044268054</v>
       </c>
       <c r="D224" t="n">
-        <v>3418.504961518773</v>
+        <v>3418.504720014967</v>
       </c>
       <c r="E224" t="n">
-        <v>3423.619196696572</v>
+        <v>3423.618954831466</v>
       </c>
       <c r="F224" t="n">
         <v>1441634</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>3453.763671875</v>
+        <v>3453.763916015625</v>
       </c>
       <c r="C226" t="n">
-        <v>3458.976354406229</v>
+        <v>3458.976598915331</v>
       </c>
       <c r="D226" t="n">
-        <v>3432.519871534796</v>
+        <v>3432.520114173733</v>
       </c>
       <c r="E226" t="n">
-        <v>3442.30580716335</v>
+        <v>3442.306050494038</v>
       </c>
       <c r="F226" t="n">
         <v>1172141</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>3454.55078125</v>
+        <v>3454.550537109375</v>
       </c>
       <c r="C227" t="n">
-        <v>3489.318168450754</v>
+        <v>3489.317921853042</v>
       </c>
       <c r="D227" t="n">
-        <v>3440.339022846675</v>
+        <v>3440.338779710426</v>
       </c>
       <c r="E227" t="n">
-        <v>3486.219948931635</v>
+        <v>3486.219702552881</v>
       </c>
       <c r="F227" t="n">
         <v>1625213</v>
@@ -5001,16 +5001,16 @@
         <v>45266</v>
       </c>
       <c r="B229" t="n">
-        <v>3544.690185546875</v>
+        <v>3544.68994140625</v>
       </c>
       <c r="C229" t="n">
-        <v>3553.29595072629</v>
+        <v>3553.295705992943</v>
       </c>
       <c r="D229" t="n">
-        <v>3467.041403635069</v>
+        <v>3467.041164842507</v>
       </c>
       <c r="E229" t="n">
-        <v>3474.368790080801</v>
+        <v>3474.368550783564</v>
       </c>
       <c r="F229" t="n">
         <v>1896572</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>3555.311767578125</v>
+        <v>3555.31201171875</v>
       </c>
       <c r="C230" t="n">
-        <v>3570.703936507656</v>
+        <v>3570.70418170525</v>
       </c>
       <c r="D230" t="n">
-        <v>3532.494245202159</v>
+        <v>3532.494487775922</v>
       </c>
       <c r="E230" t="n">
-        <v>3545.575055566324</v>
+        <v>3545.575299038336</v>
       </c>
       <c r="F230" t="n">
         <v>1967653</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>3611.569091796875</v>
+        <v>3611.5693359375</v>
       </c>
       <c r="C233" t="n">
-        <v>3637.435369731481</v>
+        <v>3637.435615620656</v>
       </c>
       <c r="D233" t="n">
-        <v>3571.146489357501</v>
+        <v>3571.146730765574</v>
       </c>
       <c r="E233" t="n">
-        <v>3578.965393300768</v>
+        <v>3578.965635237396</v>
       </c>
       <c r="F233" t="n">
         <v>2236866</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>3534.31396484375</v>
+        <v>3534.314208984375</v>
       </c>
       <c r="C234" t="n">
-        <v>3589.833394942286</v>
+        <v>3589.83364291804</v>
       </c>
       <c r="D234" t="n">
-        <v>3504.26750306284</v>
+        <v>3504.267745127939</v>
       </c>
       <c r="E234" t="n">
-        <v>3583.489764774466</v>
+        <v>3583.49001231202</v>
       </c>
       <c r="F234" t="n">
         <v>3850968</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>3606.798828125</v>
+        <v>3606.799072265625</v>
       </c>
       <c r="C235" t="n">
-        <v>3617.371624471675</v>
+        <v>3617.371869327962</v>
       </c>
       <c r="D235" t="n">
-        <v>3567.802517181185</v>
+        <v>3567.802758682188</v>
       </c>
       <c r="E235" t="n">
-        <v>3570.162859388847</v>
+        <v>3570.16310104962</v>
       </c>
       <c r="F235" t="n">
         <v>3290396</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>3795.5849609375</v>
+        <v>3795.584716796875</v>
       </c>
       <c r="C237" t="n">
-        <v>3864.234426877788</v>
+        <v>3864.234178321474</v>
       </c>
       <c r="D237" t="n">
-        <v>3767.013772649355</v>
+        <v>3767.013530346494</v>
       </c>
       <c r="E237" t="n">
-        <v>3794.503237389625</v>
+        <v>3794.502993318579</v>
       </c>
       <c r="F237" t="n">
         <v>2521612</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>3753.293701171875</v>
+        <v>3753.29345703125</v>
       </c>
       <c r="C238" t="n">
-        <v>3791.552617539618</v>
+        <v>3791.552370910364</v>
       </c>
       <c r="D238" t="n">
-        <v>3727.525630063805</v>
+        <v>3727.525387599317</v>
       </c>
       <c r="E238" t="n">
-        <v>3781.619009919612</v>
+        <v>3781.61876393651</v>
       </c>
       <c r="F238" t="n">
         <v>2004435</v>
@@ -5201,16 +5201,16 @@
         <v>45280</v>
       </c>
       <c r="B239" t="n">
-        <v>3717.73974609375</v>
+        <v>3717.739501953125</v>
       </c>
       <c r="C239" t="n">
-        <v>3834.532272421675</v>
+        <v>3834.53202061139</v>
       </c>
       <c r="D239" t="n">
-        <v>3704.462279942786</v>
+        <v>3704.462036674081</v>
       </c>
       <c r="E239" t="n">
-        <v>3764.161653798322</v>
+        <v>3764.161406609213</v>
       </c>
       <c r="F239" t="n">
         <v>2586083</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>3725.06689453125</v>
+        <v>3725.066650390625</v>
       </c>
       <c r="C240" t="n">
-        <v>3743.95035393375</v>
+        <v>3743.950108555504</v>
       </c>
       <c r="D240" t="n">
-        <v>3681.644758658645</v>
+        <v>3681.644517363904</v>
       </c>
       <c r="E240" t="n">
-        <v>3694.33201916383</v>
+        <v>3694.331777037567</v>
       </c>
       <c r="F240" t="n">
         <v>1517562</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>3760.965087890625</v>
+        <v>3760.96484375</v>
       </c>
       <c r="C241" t="n">
-        <v>3782.55321551571</v>
+        <v>3782.552969973706</v>
       </c>
       <c r="D241" t="n">
-        <v>3699.987097448884</v>
+        <v>3699.986857266606</v>
       </c>
       <c r="E241" t="n">
-        <v>3737.360704493822</v>
+        <v>3737.360461885461</v>
       </c>
       <c r="F241" t="n">
         <v>2413058</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>3748.3759765625</v>
+        <v>3748.376220703125</v>
       </c>
       <c r="C243" t="n">
-        <v>3755.260588278521</v>
+        <v>3755.260832867557</v>
       </c>
       <c r="D243" t="n">
-        <v>3705.888135138295</v>
+        <v>3705.888376511586</v>
       </c>
       <c r="E243" t="n">
-        <v>3736.377129880675</v>
+        <v>3736.377373239786</v>
       </c>
       <c r="F243" t="n">
         <v>1293976</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>3737.261962890625</v>
+        <v>3737.262451171875</v>
       </c>
       <c r="C244" t="n">
-        <v>3774.734014632118</v>
+        <v>3774.734507809172</v>
       </c>
       <c r="D244" t="n">
-        <v>3729.590730983019</v>
+        <v>3729.591218262006</v>
       </c>
       <c r="E244" t="n">
-        <v>3760.96479206702</v>
+        <v>3760.965283445095</v>
       </c>
       <c r="F244" t="n">
         <v>1682889</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>3730.869384765625</v>
+        <v>3730.869140625</v>
       </c>
       <c r="C245" t="n">
-        <v>3759.588243184236</v>
+        <v>3759.587997164306</v>
       </c>
       <c r="D245" t="n">
-        <v>3703.330937604045</v>
+        <v>3703.330695265481</v>
       </c>
       <c r="E245" t="n">
-        <v>3729.492558454027</v>
+        <v>3729.492314403499</v>
       </c>
       <c r="F245" t="n">
         <v>1574996</v>

--- a/src/data/raw/TCS.NS_data.xlsx
+++ b/src/data/raw/TCS.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>3152.165283203125</v>
+        <v>3215.826416015625</v>
       </c>
       <c r="C2" t="n">
-        <v>3160.399363281328</v>
+        <v>3224.226791582279</v>
       </c>
       <c r="D2" t="n">
-        <v>3089.290424088334</v>
+        <v>3151.68173619124</v>
       </c>
       <c r="E2" t="n">
-        <v>3095.668291985204</v>
+        <v>3158.188411513726</v>
       </c>
       <c r="F2" t="n">
         <v>1245178</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>3155.306396484375</v>
+        <v>3219.03125</v>
       </c>
       <c r="C3" t="n">
-        <v>3167.396061663735</v>
+        <v>3231.365079151348</v>
       </c>
       <c r="D3" t="n">
-        <v>3128.224105576726</v>
+        <v>3191.402002694429</v>
       </c>
       <c r="E3" t="n">
-        <v>3147.738619336442</v>
+        <v>3211.310633339959</v>
       </c>
       <c r="F3" t="n">
         <v>1231668</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>3151.927490234375</v>
+        <v>3215.584228515625</v>
       </c>
       <c r="C4" t="n">
-        <v>3176.867946247736</v>
+        <v>3241.028385228313</v>
       </c>
       <c r="D4" t="n">
-        <v>3124.178661948121</v>
+        <v>3187.274981277698</v>
       </c>
       <c r="E4" t="n">
-        <v>3170.109167495646</v>
+        <v>3234.133105299893</v>
       </c>
       <c r="F4" t="n">
         <v>1826057</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>3057.1630859375</v>
+        <v>3118.906005859375</v>
       </c>
       <c r="C5" t="n">
-        <v>3142.836568695389</v>
+        <v>3206.309763004549</v>
       </c>
       <c r="D5" t="n">
-        <v>3046.168275836065</v>
+        <v>3107.689142939505</v>
       </c>
       <c r="E5" t="n">
-        <v>3141.361034455942</v>
+        <v>3204.804428656364</v>
       </c>
       <c r="F5" t="n">
         <v>2488376</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>3160.3515625</v>
+        <v>3224.1787109375</v>
       </c>
       <c r="C6" t="n">
-        <v>3167.062697654854</v>
+        <v>3231.025385639535</v>
       </c>
       <c r="D6" t="n">
-        <v>3066.301081835728</v>
+        <v>3128.228766282827</v>
       </c>
       <c r="E6" t="n">
-        <v>3073.773805448609</v>
+        <v>3135.852410649251</v>
       </c>
       <c r="F6" t="n">
         <v>2885060</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>3128.41455078125</v>
+        <v>3191.59619140625</v>
       </c>
       <c r="C7" t="n">
-        <v>3139.457003123223</v>
+        <v>3202.861657752334</v>
       </c>
       <c r="D7" t="n">
-        <v>3074.82121660883</v>
+        <v>3136.920483167154</v>
       </c>
       <c r="E7" t="n">
-        <v>3127.081945197025</v>
+        <v>3190.236672442819</v>
       </c>
       <c r="F7" t="n">
         <v>3864655</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>3168.68115234375</v>
+        <v>3232.676025390625</v>
       </c>
       <c r="C8" t="n">
-        <v>3188.481291634258</v>
+        <v>3252.876049472087</v>
       </c>
       <c r="D8" t="n">
-        <v>3113.897675997694</v>
+        <v>3176.7861386974</v>
       </c>
       <c r="E8" t="n">
-        <v>3131.936888783698</v>
+        <v>3195.189672497922</v>
       </c>
       <c r="F8" t="n">
         <v>2720512</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>3174.059326171875</v>
+        <v>3238.1630859375</v>
       </c>
       <c r="C9" t="n">
-        <v>3188.956897522518</v>
+        <v>3253.361530786971</v>
       </c>
       <c r="D9" t="n">
-        <v>3156.163043967633</v>
+        <v>3219.905367837698</v>
       </c>
       <c r="E9" t="n">
-        <v>3168.966421448497</v>
+        <v>3232.967324176068</v>
       </c>
       <c r="F9" t="n">
         <v>2250391</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>3212.32763671875</v>
+        <v>3277.203125</v>
       </c>
       <c r="C10" t="n">
-        <v>3216.563668463612</v>
+        <v>3281.524706744396</v>
       </c>
       <c r="D10" t="n">
-        <v>3146.121019317029</v>
+        <v>3209.659412781956</v>
       </c>
       <c r="E10" t="n">
-        <v>3182.198985850685</v>
+        <v>3246.466002283055</v>
       </c>
       <c r="F10" t="n">
         <v>1742837</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>3238.06396484375</v>
+        <v>3245.566162109375</v>
       </c>
       <c r="C11" t="n">
-        <v>3256.46835383808</v>
+        <v>3264.013191816886</v>
       </c>
       <c r="D11" t="n">
-        <v>3203.100391703824</v>
+        <v>3210.521582656525</v>
       </c>
       <c r="E11" t="n">
-        <v>3221.504780698154</v>
+        <v>3228.968612364036</v>
       </c>
       <c r="F11" t="n">
         <v>1843607</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>3281.136962890625</v>
+        <v>3288.7392578125</v>
       </c>
       <c r="C12" t="n">
-        <v>3284.439220359134</v>
+        <v>3292.049166511503</v>
       </c>
       <c r="D12" t="n">
-        <v>3225.389583453474</v>
+        <v>3232.862713386385</v>
       </c>
       <c r="E12" t="n">
-        <v>3234.130476633565</v>
+        <v>3241.623858951117</v>
       </c>
       <c r="F12" t="n">
         <v>1688475</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>3292.403564453125</v>
+        <v>3300.03125</v>
       </c>
       <c r="C13" t="n">
-        <v>3310.807955834981</v>
+        <v>3318.478279809192</v>
       </c>
       <c r="D13" t="n">
-        <v>3275.164578238068</v>
+        <v>3282.752325313422</v>
       </c>
       <c r="E13" t="n">
-        <v>3282.691459543234</v>
+        <v>3290.296644542773</v>
       </c>
       <c r="F13" t="n">
         <v>2421189</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>3275.98974609375</v>
+        <v>3283.579833984375</v>
       </c>
       <c r="C14" t="n">
-        <v>3289.489475195021</v>
+        <v>3297.110840390619</v>
       </c>
       <c r="D14" t="n">
-        <v>3264.23800594345</v>
+        <v>3271.800866416555</v>
       </c>
       <c r="E14" t="n">
-        <v>3282.691002704213</v>
+        <v>3290.296616628371</v>
       </c>
       <c r="F14" t="n">
         <v>1585044</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>3266.27783203125</v>
+        <v>3273.84521484375</v>
       </c>
       <c r="C15" t="n">
-        <v>3296.919330845844</v>
+        <v>3304.557704542588</v>
       </c>
       <c r="D15" t="n">
-        <v>3258.993753939936</v>
+        <v>3266.544260843469</v>
       </c>
       <c r="E15" t="n">
-        <v>3268.123036969616</v>
+        <v>3275.694694792649</v>
       </c>
       <c r="F15" t="n">
         <v>1529349</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>3316.5859375</v>
+        <v>3324.270263671875</v>
       </c>
       <c r="C16" t="n">
-        <v>3320.567994549392</v>
+        <v>3328.261546903184</v>
       </c>
       <c r="D16" t="n">
-        <v>3258.993356766352</v>
+        <v>3266.544244461499</v>
       </c>
       <c r="E16" t="n">
-        <v>3290.460475441164</v>
+        <v>3298.084270520031</v>
       </c>
       <c r="F16" t="n">
         <v>1067916</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>3337.370361328125</v>
+        <v>3345.102294921875</v>
       </c>
       <c r="C17" t="n">
-        <v>3352.569709317985</v>
+        <v>3360.336856369218</v>
       </c>
       <c r="D17" t="n">
-        <v>3318.917363637525</v>
+        <v>3326.606545802065</v>
       </c>
       <c r="E17" t="n">
-        <v>3326.395636331859</v>
+        <v>3334.102143965738</v>
       </c>
       <c r="F17" t="n">
         <v>1387863</v>
@@ -781,16 +781,16 @@
         <v>44951</v>
       </c>
       <c r="B18" t="n">
-        <v>3331.0087890625</v>
+        <v>3338.72607421875</v>
       </c>
       <c r="C18" t="n">
-        <v>3336.107643539525</v>
+        <v>3343.836741727941</v>
       </c>
       <c r="D18" t="n">
-        <v>3306.971332242237</v>
+        <v>3314.632927389706</v>
       </c>
       <c r="E18" t="n">
-        <v>3326.686950309117</v>
+        <v>3334.394222624162</v>
       </c>
       <c r="F18" t="n">
         <v>874110</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>3312.847412109375</v>
+        <v>3320.52294921875</v>
       </c>
       <c r="C19" t="n">
-        <v>3346.791169496597</v>
+        <v>3354.545350907097</v>
       </c>
       <c r="D19" t="n">
-        <v>3284.925112015635</v>
+        <v>3292.535955939998</v>
       </c>
       <c r="E19" t="n">
-        <v>3327.366960735735</v>
+        <v>3335.076138191443</v>
       </c>
       <c r="F19" t="n">
         <v>1785879</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>3334.79638671875</v>
+        <v>3342.52294921875</v>
       </c>
       <c r="C20" t="n">
-        <v>3358.882451278223</v>
+        <v>3366.664820028926</v>
       </c>
       <c r="D20" t="n">
-        <v>3288.081310264357</v>
+        <v>3295.69963618375</v>
       </c>
       <c r="E20" t="n">
-        <v>3321.539460034428</v>
+        <v>3329.235306874248</v>
       </c>
       <c r="F20" t="n">
         <v>1953798</v>
@@ -841,16 +841,16 @@
         <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>3262.004150390625</v>
+        <v>3269.561767578125</v>
       </c>
       <c r="C21" t="n">
-        <v>3349.704492290783</v>
+        <v>3357.465299168038</v>
       </c>
       <c r="D21" t="n">
-        <v>3254.525878128853</v>
+        <v>3262.066169182979</v>
       </c>
       <c r="E21" t="n">
-        <v>3349.704492290783</v>
+        <v>3357.465299168038</v>
       </c>
       <c r="F21" t="n">
         <v>2820375</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>3310.22509765625</v>
+        <v>3317.894287109375</v>
       </c>
       <c r="C22" t="n">
-        <v>3320.568393683883</v>
+        <v>3328.261546672558</v>
       </c>
       <c r="D22" t="n">
-        <v>3258.410927408431</v>
+        <v>3265.960072853592</v>
       </c>
       <c r="E22" t="n">
-        <v>3266.180610692863</v>
+        <v>3273.747757080963</v>
       </c>
       <c r="F22" t="n">
         <v>2205161</v>
@@ -881,16 +881,16 @@
         <v>44959</v>
       </c>
       <c r="B23" t="n">
-        <v>3360.776611328125</v>
+        <v>3368.56298828125</v>
       </c>
       <c r="C23" t="n">
-        <v>3369.129116204422</v>
+        <v>3376.934844563186</v>
       </c>
       <c r="D23" t="n">
-        <v>3321.637019125759</v>
+        <v>3329.332715961184</v>
       </c>
       <c r="E23" t="n">
-        <v>3328.338276515582</v>
+        <v>3336.049499082744</v>
       </c>
       <c r="F23" t="n">
         <v>1813847</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>3382.046142578125</v>
+        <v>3389.881591796875</v>
       </c>
       <c r="C24" t="n">
-        <v>3403.12136157876</v>
+        <v>3411.005637395756</v>
       </c>
       <c r="D24" t="n">
-        <v>3353.4924135443</v>
+        <v>3361.261710119231</v>
       </c>
       <c r="E24" t="n">
-        <v>3403.12136157876</v>
+        <v>3411.005637395756</v>
       </c>
       <c r="F24" t="n">
         <v>1804469</v>
@@ -921,16 +921,16 @@
         <v>44963</v>
       </c>
       <c r="B25" t="n">
-        <v>3360.339111328125</v>
+        <v>3368.124755859375</v>
       </c>
       <c r="C25" t="n">
-        <v>3373.15904017578</v>
+        <v>3380.974387485714</v>
       </c>
       <c r="D25" t="n">
-        <v>3337.904295122701</v>
+        <v>3345.637959928599</v>
       </c>
       <c r="E25" t="n">
-        <v>3373.15904017578</v>
+        <v>3380.974387485714</v>
       </c>
       <c r="F25" t="n">
         <v>1138714</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>3372.57666015625</v>
+        <v>3380.390625</v>
       </c>
       <c r="C26" t="n">
-        <v>3392.437865050007</v>
+        <v>3400.297846566596</v>
       </c>
       <c r="D26" t="n">
-        <v>3361.747522127493</v>
+        <v>3369.53639680655</v>
       </c>
       <c r="E26" t="n">
-        <v>3369.031599994048</v>
+        <v>3376.837351243781</v>
       </c>
       <c r="F26" t="n">
         <v>1455647</v>
@@ -961,16 +961,16 @@
         <v>44965</v>
       </c>
       <c r="B27" t="n">
-        <v>3418.7578125</v>
+        <v>3426.6787109375</v>
       </c>
       <c r="C27" t="n">
-        <v>3437.987588666432</v>
+        <v>3445.953040451183</v>
       </c>
       <c r="D27" t="n">
-        <v>3377.918367893616</v>
+        <v>3385.744645679197</v>
       </c>
       <c r="E27" t="n">
-        <v>3377.918367893616</v>
+        <v>3385.744645679197</v>
       </c>
       <c r="F27" t="n">
         <v>1986946</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>3438.910400390625</v>
+        <v>3446.878173828125</v>
       </c>
       <c r="C28" t="n">
-        <v>3445.466070515718</v>
+        <v>3453.449033094023</v>
       </c>
       <c r="D28" t="n">
-        <v>3404.383823642755</v>
+        <v>3412.271600828805</v>
       </c>
       <c r="E28" t="n">
-        <v>3413.804516992728</v>
+        <v>3421.714121426801</v>
       </c>
       <c r="F28" t="n">
         <v>1655427</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>3435.705810546875</v>
+        <v>3443.66552734375</v>
       </c>
       <c r="C29" t="n">
-        <v>3440.367668449115</v>
+        <v>3448.338185666833</v>
       </c>
       <c r="D29" t="n">
-        <v>3407.152079090621</v>
+        <v>3415.045643653161</v>
       </c>
       <c r="E29" t="n">
-        <v>3418.661018557531</v>
+        <v>3426.581246607529</v>
       </c>
       <c r="F29" t="n">
         <v>1187821</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>3382.14306640625</v>
+        <v>3389.97900390625</v>
       </c>
       <c r="C30" t="n">
-        <v>3446.825775120567</v>
+        <v>3454.811573124059</v>
       </c>
       <c r="D30" t="n">
-        <v>3373.402172640095</v>
+        <v>3381.217858750399</v>
       </c>
       <c r="E30" t="n">
-        <v>3446.825775120567</v>
+        <v>3454.811573124059</v>
       </c>
       <c r="F30" t="n">
         <v>1087939</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>3399.333984375</v>
+        <v>3407.20947265625</v>
       </c>
       <c r="C31" t="n">
-        <v>3423.371444380678</v>
+        <v>3431.302622022095</v>
       </c>
       <c r="D31" t="n">
-        <v>3394.380715953297</v>
+        <v>3402.244728631505</v>
       </c>
       <c r="E31" t="n">
-        <v>3404.092821006096</v>
+        <v>3411.979334435887</v>
       </c>
       <c r="F31" t="n">
         <v>1579818</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>3419.29150390625</v>
+        <v>3427.213623046875</v>
       </c>
       <c r="C32" t="n">
-        <v>3424.48757394119</v>
+        <v>3432.421731799729</v>
       </c>
       <c r="D32" t="n">
-        <v>3360.533279792965</v>
+        <v>3368.319262645887</v>
       </c>
       <c r="E32" t="n">
-        <v>3386.61037162023</v>
+        <v>3394.456772202398</v>
       </c>
       <c r="F32" t="n">
         <v>1429449</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>3455.615234375</v>
+        <v>3463.62158203125</v>
       </c>
       <c r="C33" t="n">
-        <v>3472.077203343294</v>
+        <v>3480.121691891317</v>
       </c>
       <c r="D33" t="n">
-        <v>3425.459103829873</v>
+        <v>3433.395582461727</v>
       </c>
       <c r="E33" t="n">
-        <v>3425.653298488796</v>
+        <v>3433.590227052094</v>
       </c>
       <c r="F33" t="n">
         <v>1618931</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>3400.353515625</v>
+        <v>3408.2314453125</v>
       </c>
       <c r="C34" t="n">
-        <v>3437.016711659227</v>
+        <v>3444.97958253862</v>
       </c>
       <c r="D34" t="n">
-        <v>3389.524613495426</v>
+        <v>3397.37745481221</v>
       </c>
       <c r="E34" t="n">
-        <v>3424.633777899322</v>
+        <v>3432.567960031785</v>
       </c>
       <c r="F34" t="n">
         <v>1061369</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>3386.902099609375</v>
+        <v>3394.748779296875</v>
       </c>
       <c r="C35" t="n">
-        <v>3420.603053308458</v>
+        <v>3428.527810419238</v>
       </c>
       <c r="D35" t="n">
-        <v>3375.004772124131</v>
+        <v>3382.823888417365</v>
       </c>
       <c r="E35" t="n">
-        <v>3401.178845169285</v>
+        <v>3409.058600820038</v>
       </c>
       <c r="F35" t="n">
         <v>1296082</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>3351.647216796875</v>
+        <v>3359.412353515625</v>
       </c>
       <c r="C36" t="n">
-        <v>3407.88020623276</v>
+        <v>3415.775624220042</v>
       </c>
       <c r="D36" t="n">
-        <v>3345.577151567962</v>
+        <v>3353.328225086337</v>
       </c>
       <c r="E36" t="n">
-        <v>3393.4092655718</v>
+        <v>3401.271157109126</v>
       </c>
       <c r="F36" t="n">
         <v>1139541</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>3303.62060546875</v>
+        <v>3311.274658203125</v>
       </c>
       <c r="C37" t="n">
-        <v>3347.762068347029</v>
+        <v>3355.518391022475</v>
       </c>
       <c r="D37" t="n">
-        <v>3297.259130269267</v>
+        <v>3304.898444305571</v>
       </c>
       <c r="E37" t="n">
-        <v>3316.634729282489</v>
+        <v>3324.318934023362</v>
       </c>
       <c r="F37" t="n">
         <v>1218430</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>3315.517822265625</v>
+        <v>3323.199462890625</v>
       </c>
       <c r="C38" t="n">
-        <v>3353.006398174407</v>
+        <v>3360.774895146775</v>
       </c>
       <c r="D38" t="n">
-        <v>3309.884755013704</v>
+        <v>3317.553344525556</v>
       </c>
       <c r="E38" t="n">
-        <v>3322.510489114402</v>
+        <v>3330.208330874978</v>
       </c>
       <c r="F38" t="n">
         <v>1441570</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>3302.55224609375</v>
+        <v>3310.2041015625</v>
       </c>
       <c r="C39" t="n">
-        <v>3335.087793398604</v>
+        <v>3342.815032173059</v>
       </c>
       <c r="D39" t="n">
-        <v>3284.924872771853</v>
+        <v>3292.535886460397</v>
       </c>
       <c r="E39" t="n">
-        <v>3323.967482115296</v>
+        <v>3331.668955660811</v>
       </c>
       <c r="F39" t="n">
         <v>977592</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>3235.927490234375</v>
+        <v>3243.4248046875</v>
       </c>
       <c r="C40" t="n">
-        <v>3292.403280571086</v>
+        <v>3300.031443679016</v>
       </c>
       <c r="D40" t="n">
-        <v>3220.533710434726</v>
+        <v>3227.995359067734</v>
       </c>
       <c r="E40" t="n">
-        <v>3292.403280571086</v>
+        <v>3300.031443679016</v>
       </c>
       <c r="F40" t="n">
         <v>1128022</v>
@@ -1241,16 +1241,16 @@
         <v>44985</v>
       </c>
       <c r="B41" t="n">
-        <v>3217.474609375</v>
+        <v>3224.9287109375</v>
       </c>
       <c r="C41" t="n">
-        <v>3294.345821056354</v>
+        <v>3301.978014410918</v>
       </c>
       <c r="D41" t="n">
-        <v>3204.897244454718</v>
+        <v>3212.322207339563</v>
       </c>
       <c r="E41" t="n">
-        <v>3232.6739579558</v>
+        <v>3240.163272690666</v>
       </c>
       <c r="F41" t="n">
         <v>4116217</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>3288.227294921875</v>
+        <v>3295.84521484375</v>
       </c>
       <c r="C42" t="n">
-        <v>3291.432336947959</v>
+        <v>3299.057682072325</v>
       </c>
       <c r="D42" t="n">
-        <v>3219.562760986274</v>
+        <v>3227.021604033566</v>
       </c>
       <c r="E42" t="n">
-        <v>3227.332444874024</v>
+        <v>3234.809288145865</v>
       </c>
       <c r="F42" t="n">
         <v>1669307</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>3225.82666015625</v>
+        <v>3233.30029296875</v>
       </c>
       <c r="C43" t="n">
-        <v>3272.88175551253</v>
+        <v>3280.464406118513</v>
       </c>
       <c r="D43" t="n">
-        <v>3222.476031777055</v>
+        <v>3229.941901814665</v>
       </c>
       <c r="E43" t="n">
-        <v>3264.238077999603</v>
+        <v>3271.800702832757</v>
       </c>
       <c r="F43" t="n">
         <v>1556538</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>3245.9306640625</v>
+        <v>3253.451416015625</v>
       </c>
       <c r="C44" t="n">
-        <v>3261.324443370462</v>
+        <v>3268.880862381136</v>
       </c>
       <c r="D44" t="n">
-        <v>3235.198979094718</v>
+        <v>3242.694865963208</v>
       </c>
       <c r="E44" t="n">
-        <v>3257.439601865554</v>
+        <v>3264.987019781517</v>
       </c>
       <c r="F44" t="n">
         <v>1043190</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>3274.77587890625</v>
+        <v>3282.36328125</v>
       </c>
       <c r="C45" t="n">
-        <v>3306.922800847899</v>
+        <v>3314.584685122598</v>
       </c>
       <c r="D45" t="n">
-        <v>3262.295730433597</v>
+        <v>3269.854217238919</v>
       </c>
       <c r="E45" t="n">
-        <v>3265.112145746098</v>
+        <v>3272.677157967794</v>
       </c>
       <c r="F45" t="n">
         <v>1334132</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>3292.791748046875</v>
+        <v>3300.42041015625</v>
       </c>
       <c r="C46" t="n">
-        <v>3298.230621301328</v>
+        <v>3305.871884063732</v>
       </c>
       <c r="D46" t="n">
-        <v>3234.956356612003</v>
+        <v>3242.451027053219</v>
       </c>
       <c r="E46" t="n">
-        <v>3267.151887531704</v>
+        <v>3274.721147818137</v>
       </c>
       <c r="F46" t="n">
         <v>1844590</v>
@@ -1361,16 +1361,16 @@
         <v>44994</v>
       </c>
       <c r="B47" t="n">
-        <v>3240.783203125</v>
+        <v>3248.2919921875</v>
       </c>
       <c r="C47" t="n">
-        <v>3287.546884495445</v>
+        <v>3295.164023483622</v>
       </c>
       <c r="D47" t="n">
-        <v>3234.95594129133</v>
+        <v>3242.451228778075</v>
       </c>
       <c r="E47" t="n">
-        <v>3287.546884495445</v>
+        <v>3295.164023483622</v>
       </c>
       <c r="F47" t="n">
         <v>1648500</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>3235.10205078125</v>
+        <v>3242.597412109375</v>
       </c>
       <c r="C48" t="n">
-        <v>3241.172116172238</v>
+        <v>3248.681541147407</v>
       </c>
       <c r="D48" t="n">
-        <v>3195.282421816365</v>
+        <v>3202.685525619887</v>
       </c>
       <c r="E48" t="n">
-        <v>3217.523046564175</v>
+        <v>3224.977679350719</v>
       </c>
       <c r="F48" t="n">
         <v>1024404</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>3187.4638671875</v>
+        <v>3194.848876953125</v>
       </c>
       <c r="C49" t="n">
-        <v>3272.784794128572</v>
+        <v>3280.367483273455</v>
       </c>
       <c r="D49" t="n">
-        <v>3177.800371304722</v>
+        <v>3185.162991793343</v>
       </c>
       <c r="E49" t="n">
-        <v>3237.044204632836</v>
+        <v>3244.544086689245</v>
       </c>
       <c r="F49" t="n">
         <v>1901233</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>3122.39306640625</v>
+        <v>3129.626708984375</v>
       </c>
       <c r="C50" t="n">
-        <v>3209.26779589547</v>
+        <v>3216.702701008079</v>
       </c>
       <c r="D50" t="n">
-        <v>3117.0028008524</v>
+        <v>3124.223955811706</v>
       </c>
       <c r="E50" t="n">
-        <v>3185.570355171286</v>
+        <v>3192.950360464246</v>
       </c>
       <c r="F50" t="n">
         <v>2670334</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>3106.804931640625</v>
+        <v>3114.003173828125</v>
       </c>
       <c r="C51" t="n">
-        <v>3166.486001907087</v>
+        <v>3173.822520815282</v>
       </c>
       <c r="D51" t="n">
-        <v>3100.103674557309</v>
+        <v>3107.286390417116</v>
       </c>
       <c r="E51" t="n">
-        <v>3156.433879170192</v>
+        <v>3163.747108037477</v>
       </c>
       <c r="F51" t="n">
         <v>1780522</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>3093.304931640625</v>
+        <v>3100.4716796875</v>
       </c>
       <c r="C52" t="n">
-        <v>3127.103098881244</v>
+        <v>3134.348152479758</v>
       </c>
       <c r="D52" t="n">
-        <v>3080.679197225765</v>
+        <v>3087.816693239796</v>
       </c>
       <c r="E52" t="n">
-        <v>3115.642769451531</v>
+        <v>3122.861271094976</v>
       </c>
       <c r="F52" t="n">
         <v>1901060</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>3087.769287109375</v>
+        <v>3094.923095703125</v>
       </c>
       <c r="C53" t="n">
-        <v>3128.657102880417</v>
+        <v>3135.905641222618</v>
       </c>
       <c r="D53" t="n">
-        <v>3053.485512400812</v>
+        <v>3060.559891626844</v>
       </c>
       <c r="E53" t="n">
-        <v>3059.798380031412</v>
+        <v>3066.887385041467</v>
       </c>
       <c r="F53" t="n">
         <v>6739966</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>3052.8056640625</v>
+        <v>3059.878173828125</v>
       </c>
       <c r="C54" t="n">
-        <v>3078.396915553018</v>
+        <v>3085.528713198711</v>
       </c>
       <c r="D54" t="n">
-        <v>3005.94476277949</v>
+        <v>3012.90870874564</v>
       </c>
       <c r="E54" t="n">
-        <v>3078.396915553018</v>
+        <v>3085.528713198711</v>
       </c>
       <c r="F54" t="n">
         <v>2289468</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>3016.677001953125</v>
+        <v>3023.665771484375</v>
       </c>
       <c r="C55" t="n">
-        <v>3065.868718494023</v>
+        <v>3072.971451028116</v>
       </c>
       <c r="D55" t="n">
-        <v>3008.275888935992</v>
+        <v>3015.245195514249</v>
       </c>
       <c r="E55" t="n">
-        <v>3052.805984808073</v>
+        <v>3059.878454760153</v>
       </c>
       <c r="F55" t="n">
         <v>1815297</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>3040.66552734375</v>
+        <v>3047.71044921875</v>
       </c>
       <c r="C56" t="n">
-        <v>3052.999851837492</v>
+        <v>3060.073351124791</v>
       </c>
       <c r="D56" t="n">
-        <v>3016.676678204852</v>
+        <v>3023.666020284397</v>
       </c>
       <c r="E56" t="n">
-        <v>3039.937119553428</v>
+        <v>3046.980353779481</v>
       </c>
       <c r="F56" t="n">
         <v>1123939</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>3034.692626953125</v>
+        <v>3041.723388671875</v>
       </c>
       <c r="C57" t="n">
-        <v>3055.768083332699</v>
+        <v>3062.847672570455</v>
       </c>
       <c r="D57" t="n">
-        <v>3011.723594737098</v>
+        <v>3018.70114190918</v>
       </c>
       <c r="E57" t="n">
-        <v>3025.223325099308</v>
+        <v>3032.232148383705</v>
       </c>
       <c r="F57" t="n">
         <v>1372218</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>3030.662109375</v>
+        <v>3037.683837890625</v>
       </c>
       <c r="C58" t="n">
-        <v>3078.737025066095</v>
+        <v>3085.870138155194</v>
       </c>
       <c r="D58" t="n">
-        <v>3016.579558313972</v>
+        <v>3023.568659025246</v>
       </c>
       <c r="E58" t="n">
-        <v>3058.244390401487</v>
+        <v>3065.330024190027</v>
       </c>
       <c r="F58" t="n">
         <v>1329577</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>3032.41015625</v>
+        <v>3039.435791015625</v>
       </c>
       <c r="C59" t="n">
-        <v>3061.98346430717</v>
+        <v>3069.077615945683</v>
       </c>
       <c r="D59" t="n">
-        <v>3016.579379950224</v>
+        <v>3023.568337206341</v>
       </c>
       <c r="E59" t="n">
-        <v>3044.744480406939</v>
+        <v>3051.79869193235</v>
       </c>
       <c r="F59" t="n">
         <v>1524217</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>3026.1943359375</v>
+        <v>3033.20556640625</v>
       </c>
       <c r="C60" t="n">
-        <v>3058.875707575236</v>
+        <v>3065.962655794782</v>
       </c>
       <c r="D60" t="n">
-        <v>3020.609876238216</v>
+        <v>3027.608168366051</v>
       </c>
       <c r="E60" t="n">
-        <v>3036.974866027837</v>
+        <v>3044.011073339661</v>
       </c>
       <c r="F60" t="n">
         <v>1303530</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>3048.5322265625</v>
+        <v>3055.59521484375</v>
       </c>
       <c r="C61" t="n">
-        <v>3059.312756836116</v>
+        <v>3066.400721976172</v>
       </c>
       <c r="D61" t="n">
-        <v>3014.734294366985</v>
+        <v>3021.718977949026</v>
       </c>
       <c r="E61" t="n">
-        <v>3038.917338457209</v>
+        <v>3045.958050496331</v>
       </c>
       <c r="F61" t="n">
         <v>1740616</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>3113.603271484375</v>
+        <v>3120.81689453125</v>
       </c>
       <c r="C62" t="n">
-        <v>3120.498960047264</v>
+        <v>3127.728559085171</v>
       </c>
       <c r="D62" t="n">
-        <v>3061.255126694359</v>
+        <v>3068.347469105651</v>
       </c>
       <c r="E62" t="n">
-        <v>3098.112513300547</v>
+        <v>3105.290247224594</v>
       </c>
       <c r="F62" t="n">
         <v>2382581</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>3107.873291015625</v>
+        <v>3115.073486328125</v>
       </c>
       <c r="C63" t="n">
-        <v>3132.10494315913</v>
+        <v>3139.36127738459</v>
       </c>
       <c r="D63" t="n">
-        <v>3082.379017925262</v>
+        <v>3089.52014913559</v>
       </c>
       <c r="E63" t="n">
-        <v>3132.10494315913</v>
+        <v>3139.36127738459</v>
       </c>
       <c r="F63" t="n">
         <v>1521830</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>3146.527587890625</v>
+        <v>3153.817626953125</v>
       </c>
       <c r="C64" t="n">
-        <v>3170.37085128884</v>
+        <v>3177.716131666311</v>
       </c>
       <c r="D64" t="n">
-        <v>3093.790814297667</v>
+        <v>3100.958670055307</v>
       </c>
       <c r="E64" t="n">
-        <v>3093.790814297667</v>
+        <v>3100.958670055307</v>
       </c>
       <c r="F64" t="n">
         <v>2655065</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>3127.977294921875</v>
+        <v>3135.224609375</v>
       </c>
       <c r="C65" t="n">
-        <v>3163.572298429412</v>
+        <v>3170.902084128027</v>
       </c>
       <c r="D65" t="n">
-        <v>3122.441443051755</v>
+        <v>3129.675931305875</v>
       </c>
       <c r="E65" t="n">
-        <v>3132.153547073689</v>
+        <v>3139.41053762409</v>
       </c>
       <c r="F65" t="n">
         <v>1703464</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>3169.447998046875</v>
+        <v>3176.790771484375</v>
       </c>
       <c r="C66" t="n">
-        <v>3177.80050252542</v>
+        <v>3185.162626508522</v>
       </c>
       <c r="D66" t="n">
-        <v>3122.441508441083</v>
+        <v>3129.675380264334</v>
       </c>
       <c r="E66" t="n">
-        <v>3127.297560553744</v>
+        <v>3134.542682566455</v>
       </c>
       <c r="F66" t="n">
         <v>2203187</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>3121.27587890625</v>
+        <v>3128.50732421875</v>
       </c>
       <c r="C67" t="n">
-        <v>3178.722876423263</v>
+        <v>3186.087416289731</v>
       </c>
       <c r="D67" t="n">
-        <v>3100.249032503311</v>
+        <v>3107.431762323892</v>
       </c>
       <c r="E67" t="n">
-        <v>3170.030591189044</v>
+        <v>3177.374992564794</v>
       </c>
       <c r="F67" t="n">
         <v>2348779</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>3148.323974609375</v>
+        <v>3155.618408203125</v>
       </c>
       <c r="C68" t="n">
-        <v>3167.068382015241</v>
+        <v>3174.406245013392</v>
       </c>
       <c r="D68" t="n">
-        <v>3106.90194752172</v>
+        <v>3114.100409344983</v>
       </c>
       <c r="E68" t="n">
-        <v>3135.018440074567</v>
+        <v>3142.282045729745</v>
       </c>
       <c r="F68" t="n">
         <v>2417727</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>3097.044677734375</v>
+        <v>3104.219970703125</v>
       </c>
       <c r="C69" t="n">
-        <v>3137.009894706056</v>
+        <v>3144.27777986193</v>
       </c>
       <c r="D69" t="n">
-        <v>3088.449370020204</v>
+        <v>3095.604749213913</v>
       </c>
       <c r="E69" t="n">
-        <v>3117.585684831716</v>
+        <v>3124.808567602724</v>
       </c>
       <c r="F69" t="n">
         <v>4174070</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>3049.115234375</v>
+        <v>3056.17919921875</v>
       </c>
       <c r="C70" t="n">
-        <v>3072.327069487726</v>
+        <v>3079.444809795698</v>
       </c>
       <c r="D70" t="n">
-        <v>2981.858910125766</v>
+        <v>2988.767060487774</v>
       </c>
       <c r="E70" t="n">
-        <v>3043.870792744019</v>
+        <v>3050.922607652965</v>
       </c>
       <c r="F70" t="n">
         <v>5505048</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>3040.616943359375</v>
+        <v>3047.661376953125</v>
       </c>
       <c r="C71" t="n">
-        <v>3065.96562950708</v>
+        <v>3073.068790372165</v>
       </c>
       <c r="D71" t="n">
-        <v>3021.047148749954</v>
+        <v>3028.046243479541</v>
       </c>
       <c r="E71" t="n">
-        <v>3064.12018748991</v>
+        <v>3071.219072876043</v>
       </c>
       <c r="F71" t="n">
         <v>2617302</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>3000.65185546875</v>
+        <v>3007.60400390625</v>
       </c>
       <c r="C72" t="n">
-        <v>3049.600766558551</v>
+        <v>3056.666323719269</v>
       </c>
       <c r="D72" t="n">
-        <v>2983.072851746685</v>
+        <v>2989.984271752782</v>
       </c>
       <c r="E72" t="n">
-        <v>3040.617070032861</v>
+        <v>3047.661813052262</v>
       </c>
       <c r="F72" t="n">
         <v>3298034</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>3015.4140625</v>
+        <v>3022.400146484375</v>
       </c>
       <c r="C73" t="n">
-        <v>3023.377940265596</v>
+        <v>3030.382474889836</v>
       </c>
       <c r="D73" t="n">
-        <v>2989.38557665837</v>
+        <v>2996.31135808253</v>
       </c>
       <c r="E73" t="n">
-        <v>3001.040101323705</v>
+        <v>3007.992883845036</v>
       </c>
       <c r="F73" t="n">
         <v>2419999</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>3069.850341796875</v>
+        <v>3076.962646484375</v>
       </c>
       <c r="C74" t="n">
-        <v>3073.346556803577</v>
+        <v>3080.466961607894</v>
       </c>
       <c r="D74" t="n">
-        <v>3011.52911262608</v>
+        <v>3018.506297257086</v>
       </c>
       <c r="E74" t="n">
-        <v>3020.464200459077</v>
+        <v>3027.462086121079</v>
       </c>
       <c r="F74" t="n">
         <v>1929184</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>3083.398681640625</v>
+        <v>3090.542724609375</v>
       </c>
       <c r="C75" t="n">
-        <v>3089.371530477495</v>
+        <v>3096.529412165509</v>
       </c>
       <c r="D75" t="n">
-        <v>3036.14915561554</v>
+        <v>3043.183724371245</v>
       </c>
       <c r="E75" t="n">
-        <v>3060.381043655745</v>
+        <v>3067.4717561889</v>
       </c>
       <c r="F75" t="n">
         <v>1640676</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>3084.564453125</v>
+        <v>3091.7109375</v>
       </c>
       <c r="C76" t="n">
-        <v>3099.326804848552</v>
+        <v>3106.507491431849</v>
       </c>
       <c r="D76" t="n">
-        <v>3056.884954726366</v>
+        <v>3063.967309754802</v>
       </c>
       <c r="E76" t="n">
-        <v>3091.362926415893</v>
+        <v>3098.52516185847</v>
       </c>
       <c r="F76" t="n">
         <v>2024090</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>3106.076171875</v>
+        <v>3113.272705078125</v>
       </c>
       <c r="C77" t="n">
-        <v>3116.031077596707</v>
+        <v>3123.25067553025</v>
       </c>
       <c r="D77" t="n">
-        <v>3089.420009829291</v>
+        <v>3096.577952020295</v>
       </c>
       <c r="E77" t="n">
-        <v>3089.420009829291</v>
+        <v>3096.577952020295</v>
       </c>
       <c r="F77" t="n">
         <v>2000029</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>3096.170166015625</v>
+        <v>3103.34326171875</v>
       </c>
       <c r="C78" t="n">
-        <v>3107.09628308182</v>
+        <v>3114.294692020064</v>
       </c>
       <c r="D78" t="n">
-        <v>3079.368178571448</v>
+        <v>3086.502348034257</v>
       </c>
       <c r="E78" t="n">
-        <v>3093.30514274065</v>
+        <v>3100.471600860877</v>
       </c>
       <c r="F78" t="n">
         <v>2434446</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>3126.569091796875</v>
+        <v>3133.8125</v>
       </c>
       <c r="C79" t="n">
-        <v>3134.338775025694</v>
+        <v>3141.600183466646</v>
       </c>
       <c r="D79" t="n">
-        <v>3104.231252514021</v>
+        <v>3111.422910033393</v>
       </c>
       <c r="E79" t="n">
-        <v>3108.261680844204</v>
+        <v>3115.46267576722</v>
       </c>
       <c r="F79" t="n">
         <v>2931312</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>3126.714599609375</v>
+        <v>3133.958740234375</v>
       </c>
       <c r="C80" t="n">
-        <v>3141.865576367999</v>
+        <v>3149.14481959119</v>
       </c>
       <c r="D80" t="n">
-        <v>3117.585316890658</v>
+        <v>3124.808306302232</v>
       </c>
       <c r="E80" t="n">
-        <v>3141.865576367999</v>
+        <v>3149.14481959119</v>
       </c>
       <c r="F80" t="n">
         <v>2321159</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>3088.351806640625</v>
+        <v>3095.50732421875</v>
       </c>
       <c r="C81" t="n">
-        <v>3123.412596363726</v>
+        <v>3130.649347594256</v>
       </c>
       <c r="D81" t="n">
-        <v>3081.796136545645</v>
+        <v>3088.936465047027</v>
       </c>
       <c r="E81" t="n">
-        <v>3123.412596363726</v>
+        <v>3130.649347594256</v>
       </c>
       <c r="F81" t="n">
         <v>2468285</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>3127.977294921875</v>
+        <v>3135.224609375</v>
       </c>
       <c r="C82" t="n">
-        <v>3131.6193339301</v>
+        <v>3138.87508674433</v>
       </c>
       <c r="D82" t="n">
-        <v>3086.5066581706</v>
+        <v>3093.657887928483</v>
       </c>
       <c r="E82" t="n">
-        <v>3088.59466569055</v>
+        <v>3095.750733222384</v>
       </c>
       <c r="F82" t="n">
         <v>1953253</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>3137.689453125</v>
+        <v>3144.958984375</v>
       </c>
       <c r="C83" t="n">
-        <v>3150.606599119606</v>
+        <v>3157.906057358198</v>
       </c>
       <c r="D83" t="n">
-        <v>3117.634052818159</v>
+        <v>3124.857118870936</v>
       </c>
       <c r="E83" t="n">
-        <v>3127.297549064468</v>
+        <v>3134.543003912885</v>
       </c>
       <c r="F83" t="n">
         <v>1710027</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>3157.016845703125</v>
+        <v>3164.3310546875</v>
       </c>
       <c r="C84" t="n">
-        <v>3161.144490196803</v>
+        <v>3168.468262150245</v>
       </c>
       <c r="D84" t="n">
-        <v>3138.272436227098</v>
+        <v>3145.543217971487</v>
       </c>
       <c r="E84" t="n">
-        <v>3151.57797223139</v>
+        <v>3158.879580377962</v>
       </c>
       <c r="F84" t="n">
         <v>928235</v>
@@ -2121,16 +2121,16 @@
         <v>45055</v>
       </c>
       <c r="B85" t="n">
-        <v>3188.7265625</v>
+        <v>3196.1142578125</v>
       </c>
       <c r="C85" t="n">
-        <v>3203.051915975025</v>
+        <v>3210.47280050731</v>
       </c>
       <c r="D85" t="n">
-        <v>3152.548974910531</v>
+        <v>3159.852853379844</v>
       </c>
       <c r="E85" t="n">
-        <v>3158.959058428867</v>
+        <v>3166.27778788745</v>
       </c>
       <c r="F85" t="n">
         <v>1107375</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>3192.174560546875</v>
+        <v>3199.570068359375</v>
       </c>
       <c r="C86" t="n">
-        <v>3211.307359025838</v>
+        <v>3218.747192973373</v>
       </c>
       <c r="D86" t="n">
-        <v>3172.021943671089</v>
+        <v>3179.370762672335</v>
       </c>
       <c r="E86" t="n">
-        <v>3195.282386570394</v>
+        <v>3202.685094475245</v>
       </c>
       <c r="F86" t="n">
         <v>1559987</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>3187.658203125</v>
+        <v>3195.04345703125</v>
       </c>
       <c r="C87" t="n">
-        <v>3214.415097769195</v>
+        <v>3221.862342782427</v>
       </c>
       <c r="D87" t="n">
-        <v>3177.800512151206</v>
+        <v>3185.162927488785</v>
       </c>
       <c r="E87" t="n">
-        <v>3213.735297893747</v>
+        <v>3221.180967927993</v>
       </c>
       <c r="F87" t="n">
         <v>1719623</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>3180.0341796875</v>
+        <v>3187.402099609375</v>
       </c>
       <c r="C88" t="n">
-        <v>3195.282135159344</v>
+        <v>3202.685383542657</v>
       </c>
       <c r="D88" t="n">
-        <v>3166.145823896492</v>
+        <v>3173.481565455642</v>
       </c>
       <c r="E88" t="n">
-        <v>3184.744407741183</v>
+        <v>3192.123240936674</v>
       </c>
       <c r="F88" t="n">
         <v>1027479</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>3161.33837890625</v>
+        <v>3168.66259765625</v>
       </c>
       <c r="C89" t="n">
-        <v>3197.22455484398</v>
+        <v>3204.631915026868</v>
       </c>
       <c r="D89" t="n">
-        <v>3154.831316815432</v>
+        <v>3162.140459942243</v>
       </c>
       <c r="E89" t="n">
-        <v>3189.454871843143</v>
+        <v>3196.84423115074</v>
       </c>
       <c r="F89" t="n">
         <v>1150390</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>3164.34912109375</v>
+        <v>3171.68017578125</v>
       </c>
       <c r="C90" t="n">
-        <v>3190.426215600273</v>
+        <v>3197.817684799131</v>
       </c>
       <c r="D90" t="n">
-        <v>3156.870848315183</v>
+        <v>3164.18457759875</v>
       </c>
       <c r="E90" t="n">
-        <v>3162.455308205503</v>
+        <v>3169.781975372752</v>
       </c>
       <c r="F90" t="n">
         <v>986306</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>3116.32275390625</v>
+        <v>3123.54296875</v>
       </c>
       <c r="C91" t="n">
-        <v>3185.570102645282</v>
+        <v>3192.95075681921</v>
       </c>
       <c r="D91" t="n">
-        <v>3106.173652678437</v>
+        <v>3113.370353047877</v>
       </c>
       <c r="E91" t="n">
-        <v>3162.212445171491</v>
+        <v>3169.538981938935</v>
       </c>
       <c r="F91" t="n">
         <v>1588815</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>3107.7275390625</v>
+        <v>3114.927734375</v>
       </c>
       <c r="C92" t="n">
-        <v>3135.989618032834</v>
+        <v>3143.255292859212</v>
       </c>
       <c r="D92" t="n">
-        <v>3103.017074011493</v>
+        <v>3110.206355797001</v>
       </c>
       <c r="E92" t="n">
-        <v>3133.075986977424</v>
+        <v>3140.334911304473</v>
       </c>
       <c r="F92" t="n">
         <v>1369364</v>
@@ -2281,16 +2281,16 @@
         <v>45065</v>
       </c>
       <c r="B93" t="n">
-        <v>3130.0654296875</v>
+        <v>3137.3173828125</v>
       </c>
       <c r="C93" t="n">
-        <v>3141.379935631145</v>
+        <v>3148.658102989866</v>
       </c>
       <c r="D93" t="n">
-        <v>3110.835416976667</v>
+        <v>3118.042816671745</v>
       </c>
       <c r="E93" t="n">
-        <v>3117.585281612606</v>
+        <v>3124.808319863184</v>
       </c>
       <c r="F93" t="n">
         <v>1152449</v>
@@ -2301,16 +2301,16 @@
         <v>45068</v>
       </c>
       <c r="B94" t="n">
-        <v>3203.73193359375</v>
+        <v>3211.154052734375</v>
       </c>
       <c r="C94" t="n">
-        <v>3213.201235686971</v>
+        <v>3220.645292458387</v>
       </c>
       <c r="D94" t="n">
-        <v>3124.432693473243</v>
+        <v>3131.6710992383</v>
       </c>
       <c r="E94" t="n">
-        <v>3137.009821651596</v>
+        <v>3144.277364980507</v>
       </c>
       <c r="F94" t="n">
         <v>1333243</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>3202.12890625</v>
+        <v>3209.548095703125</v>
       </c>
       <c r="C95" t="n">
-        <v>3232.139209105546</v>
+        <v>3239.627931088106</v>
       </c>
       <c r="D95" t="n">
-        <v>3195.379042215513</v>
+        <v>3202.782592535574</v>
       </c>
       <c r="E95" t="n">
-        <v>3210.821190847613</v>
+        <v>3218.260519935368</v>
       </c>
       <c r="F95" t="n">
         <v>1687418</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>3208.248046875</v>
+        <v>3215.68115234375</v>
       </c>
       <c r="C96" t="n">
-        <v>3221.699168971485</v>
+        <v>3229.163438991028</v>
       </c>
       <c r="D96" t="n">
-        <v>3181.685346951138</v>
+        <v>3189.056909999481</v>
       </c>
       <c r="E96" t="n">
-        <v>3181.685346951138</v>
+        <v>3189.056909999481</v>
       </c>
       <c r="F96" t="n">
         <v>1016555</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>3198.681396484375</v>
+        <v>3206.092529296875</v>
       </c>
       <c r="C97" t="n">
-        <v>3210.821526272156</v>
+        <v>3218.260786960822</v>
       </c>
       <c r="D97" t="n">
-        <v>3173.041537217347</v>
+        <v>3180.393264175131</v>
       </c>
       <c r="E97" t="n">
-        <v>3199.167001675886</v>
+        <v>3206.579259603433</v>
       </c>
       <c r="F97" t="n">
         <v>1374917</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>3233.062255859375</v>
+        <v>3240.552734375</v>
       </c>
       <c r="C98" t="n">
-        <v>3242.531557406242</v>
+        <v>3250.04397475081</v>
       </c>
       <c r="D98" t="n">
-        <v>3196.253475973244</v>
+        <v>3203.658674542767</v>
       </c>
       <c r="E98" t="n">
-        <v>3198.681502010902</v>
+        <v>3206.09232592118</v>
       </c>
       <c r="F98" t="n">
         <v>1791115</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>3224.758544921875</v>
+        <v>3232.22998046875</v>
       </c>
       <c r="C99" t="n">
-        <v>3274.921467212798</v>
+        <v>3282.509125117259</v>
       </c>
       <c r="D99" t="n">
-        <v>3216.64884324104</v>
+        <v>3224.101489439016</v>
       </c>
       <c r="E99" t="n">
-        <v>3264.043958160452</v>
+        <v>3271.606413989577</v>
       </c>
       <c r="F99" t="n">
         <v>1210372</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>3220.72802734375</v>
+        <v>3228.18994140625</v>
       </c>
       <c r="C100" t="n">
-        <v>3231.168539617961</v>
+        <v>3238.65464268515</v>
       </c>
       <c r="D100" t="n">
-        <v>3206.305694515833</v>
+        <v>3213.734194329371</v>
       </c>
       <c r="E100" t="n">
-        <v>3219.5626222332</v>
+        <v>3227.021836237604</v>
       </c>
       <c r="F100" t="n">
         <v>1344224</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>3194.79638671875</v>
+        <v>3202.198486328125</v>
       </c>
       <c r="C101" t="n">
-        <v>3231.896573974181</v>
+        <v>3239.384631888358</v>
       </c>
       <c r="D101" t="n">
-        <v>3171.147320292717</v>
+        <v>3178.494626818538</v>
       </c>
       <c r="E101" t="n">
-        <v>3213.734988190407</v>
+        <v>3221.180967095232</v>
       </c>
       <c r="F101" t="n">
         <v>5815424</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>3228.30322265625</v>
+        <v>3235.78271484375</v>
       </c>
       <c r="C102" t="n">
-        <v>3243.842588348939</v>
+        <v>3251.358082905573</v>
       </c>
       <c r="D102" t="n">
-        <v>3202.566148227733</v>
+        <v>3209.986011491355</v>
       </c>
       <c r="E102" t="n">
-        <v>3218.591119098319</v>
+        <v>3226.04810980511</v>
       </c>
       <c r="F102" t="n">
         <v>1177314</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>3210.43310546875</v>
+        <v>3217.87158203125</v>
       </c>
       <c r="C103" t="n">
-        <v>3239.860590096112</v>
+        <v>3247.367249251896</v>
       </c>
       <c r="D103" t="n">
-        <v>3202.517598657624</v>
+        <v>3209.937735229861</v>
       </c>
       <c r="E103" t="n">
-        <v>3230.488504836652</v>
+        <v>3237.973449153891</v>
       </c>
       <c r="F103" t="n">
         <v>2030661</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>3194.213623046875</v>
+        <v>3201.614501953125</v>
       </c>
       <c r="C104" t="n">
-        <v>3231.216832200879</v>
+        <v>3238.703446221436</v>
       </c>
       <c r="D104" t="n">
-        <v>3190.474605469119</v>
+        <v>3197.866821205153</v>
       </c>
       <c r="E104" t="n">
-        <v>3219.562308008991</v>
+        <v>3227.021918913153</v>
       </c>
       <c r="F104" t="n">
         <v>1861468</v>
@@ -2521,16 +2521,16 @@
         <v>45083</v>
       </c>
       <c r="B105" t="n">
-        <v>3139.243408203125</v>
+        <v>3146.516845703125</v>
       </c>
       <c r="C105" t="n">
-        <v>3194.165403480642</v>
+        <v>3201.566091928747</v>
       </c>
       <c r="D105" t="n">
-        <v>3127.880294000307</v>
+        <v>3135.127403850548</v>
       </c>
       <c r="E105" t="n">
-        <v>3185.570096637328</v>
+        <v>3192.950870278268</v>
       </c>
       <c r="F105" t="n">
         <v>2022849</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>3180.616943359375</v>
+        <v>3187.98583984375</v>
       </c>
       <c r="C106" t="n">
-        <v>3184.453414248615</v>
+        <v>3191.831199120794</v>
       </c>
       <c r="D106" t="n">
-        <v>3147.693004616822</v>
+        <v>3154.985622473253</v>
       </c>
       <c r="E106" t="n">
-        <v>3159.347529780475</v>
+        <v>3166.667148998918</v>
       </c>
       <c r="F106" t="n">
         <v>1567196</v>
@@ -2561,16 +2561,16 @@
         <v>45085</v>
       </c>
       <c r="B107" t="n">
-        <v>3143.2734375</v>
+        <v>3150.556396484375</v>
       </c>
       <c r="C107" t="n">
-        <v>3175.857589549096</v>
+        <v>3183.216045956025</v>
       </c>
       <c r="D107" t="n">
-        <v>3139.922809483861</v>
+        <v>3147.198005069061</v>
       </c>
       <c r="E107" t="n">
-        <v>3167.116697100796</v>
+        <v>3174.454900875412</v>
       </c>
       <c r="F107" t="n">
         <v>1759366</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>3116.9052734375</v>
+        <v>3124.127197265625</v>
       </c>
       <c r="C108" t="n">
-        <v>3156.433485354796</v>
+        <v>3163.746996738681</v>
       </c>
       <c r="D108" t="n">
-        <v>3113.069040162293</v>
+        <v>3120.282075371076</v>
       </c>
       <c r="E108" t="n">
-        <v>3151.577433838866</v>
+        <v>3158.879693666775</v>
       </c>
       <c r="F108" t="n">
         <v>1775689</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>3153.423095703125</v>
+        <v>3160.728515625</v>
       </c>
       <c r="C109" t="n">
-        <v>3160.70717403295</v>
+        <v>3168.029468712613</v>
       </c>
       <c r="D109" t="n">
-        <v>3118.556735609132</v>
+        <v>3125.781381910118</v>
       </c>
       <c r="E109" t="n">
-        <v>3122.441577385039</v>
+        <v>3129.675223556845</v>
       </c>
       <c r="F109" t="n">
         <v>2324605</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>3150.315185546875</v>
+        <v>3157.61376953125</v>
       </c>
       <c r="C110" t="n">
-        <v>3171.002014873333</v>
+        <v>3178.348525668937</v>
       </c>
       <c r="D110" t="n">
-        <v>3145.75054400451</v>
+        <v>3153.038552723334</v>
       </c>
       <c r="E110" t="n">
-        <v>3166.145962783175</v>
+        <v>3173.481223179398</v>
       </c>
       <c r="F110" t="n">
         <v>1371928</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>3157.45361328125</v>
+        <v>3164.769287109375</v>
       </c>
       <c r="C111" t="n">
-        <v>3162.11547061616</v>
+        <v>3169.441945751881</v>
       </c>
       <c r="D111" t="n">
-        <v>3132.979158662863</v>
+        <v>3140.238126312834</v>
       </c>
       <c r="E111" t="n">
-        <v>3150.315122007927</v>
+        <v>3157.614256282292</v>
       </c>
       <c r="F111" t="n">
         <v>1658544</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>3146.935302734375</v>
+        <v>3154.226318359375</v>
       </c>
       <c r="C112" t="n">
-        <v>3177.413406727811</v>
+        <v>3184.775035921587</v>
       </c>
       <c r="D112" t="n">
-        <v>3140.771124714541</v>
+        <v>3148.047858788148</v>
       </c>
       <c r="E112" t="n">
-        <v>3175.309870527746</v>
+        <v>3182.666626117897</v>
       </c>
       <c r="F112" t="n">
         <v>2273810</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>3106.427734375</v>
+        <v>3113.625244140625</v>
       </c>
       <c r="C113" t="n">
-        <v>3130.399349806404</v>
+        <v>3137.652401162215</v>
       </c>
       <c r="D113" t="n">
-        <v>3087.935440878042</v>
+        <v>3095.090104495482</v>
       </c>
       <c r="E113" t="n">
-        <v>3128.051205477535</v>
+        <v>3135.298816245898</v>
       </c>
       <c r="F113" t="n">
         <v>4156189</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>3141.16259765625</v>
+        <v>3148.43994140625</v>
       </c>
       <c r="C114" t="n">
-        <v>3145.565548104614</v>
+        <v>3152.853092467582</v>
       </c>
       <c r="D114" t="n">
-        <v>3106.526149679257</v>
+        <v>3113.723248828614</v>
       </c>
       <c r="E114" t="n">
-        <v>3121.202651173805</v>
+        <v>3128.433752366386</v>
       </c>
       <c r="F114" t="n">
         <v>1468186</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>3158.089111328125</v>
+        <v>3165.40625</v>
       </c>
       <c r="C115" t="n">
-        <v>3162.785638938271</v>
+        <v>3170.113659235898</v>
       </c>
       <c r="D115" t="n">
-        <v>3132.013959460555</v>
+        <v>3139.270683275414</v>
       </c>
       <c r="E115" t="n">
-        <v>3144.684622907224</v>
+        <v>3151.970704032227</v>
       </c>
       <c r="F115" t="n">
         <v>1528452</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>3187.931640625</v>
+        <v>3195.31787109375</v>
       </c>
       <c r="C116" t="n">
-        <v>3191.062579714729</v>
+        <v>3198.45606436591</v>
       </c>
       <c r="D116" t="n">
-        <v>3154.420296837724</v>
+        <v>3161.728883700389</v>
       </c>
       <c r="E116" t="n">
-        <v>3179.908534559027</v>
+        <v>3187.27617601234</v>
       </c>
       <c r="F116" t="n">
         <v>1645987</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>3168.65673828125</v>
+        <v>3175.997802734375</v>
       </c>
       <c r="C117" t="n">
-        <v>3197.177977892726</v>
+        <v>3204.585119638396</v>
       </c>
       <c r="D117" t="n">
-        <v>3160.437992824271</v>
+        <v>3167.760016294068</v>
       </c>
       <c r="E117" t="n">
-        <v>3189.693057525668</v>
+        <v>3197.082858395573</v>
       </c>
       <c r="F117" t="n">
         <v>1529603</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>3146.984375</v>
+        <v>3154.275390625</v>
       </c>
       <c r="C118" t="n">
-        <v>3179.321407907007</v>
+        <v>3186.687342814754</v>
       </c>
       <c r="D118" t="n">
-        <v>3139.939463389819</v>
+        <v>3147.21415717953</v>
       </c>
       <c r="E118" t="n">
-        <v>3167.482507041952</v>
+        <v>3174.821013274846</v>
       </c>
       <c r="F118" t="n">
         <v>1119505</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>3120.860107421875</v>
+        <v>3128.09033203125</v>
       </c>
       <c r="C119" t="n">
-        <v>3144.587118198001</v>
+        <v>3151.872312146378</v>
       </c>
       <c r="D119" t="n">
-        <v>3104.569286294799</v>
+        <v>3111.761769290719</v>
       </c>
       <c r="E119" t="n">
-        <v>3135.879156184945</v>
+        <v>3143.144176040578</v>
       </c>
       <c r="F119" t="n">
         <v>1978803</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>3128.39404296875</v>
+        <v>3135.64208984375</v>
       </c>
       <c r="C120" t="n">
-        <v>3140.428582365064</v>
+        <v>3147.704511567056</v>
       </c>
       <c r="D120" t="n">
-        <v>3113.668572919409</v>
+        <v>3120.882502961393</v>
       </c>
       <c r="E120" t="n">
-        <v>3132.943662606348</v>
+        <v>3140.202250307071</v>
       </c>
       <c r="F120" t="n">
         <v>863542</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>3146.103759765625</v>
+        <v>3153.392578125</v>
       </c>
       <c r="C121" t="n">
-        <v>3161.269478099569</v>
+        <v>3168.593432034458</v>
       </c>
       <c r="D121" t="n">
-        <v>3124.529254618718</v>
+        <v>3131.768089677726</v>
       </c>
       <c r="E121" t="n">
-        <v>3138.814478405993</v>
+        <v>3146.086409131692</v>
       </c>
       <c r="F121" t="n">
         <v>1575872</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>3231.03173828125</v>
+        <v>3238.517578125</v>
       </c>
       <c r="C122" t="n">
-        <v>3238.614597232474</v>
+        <v>3246.118005479219</v>
       </c>
       <c r="D122" t="n">
-        <v>3144.782928470046</v>
+        <v>3152.068942119175</v>
       </c>
       <c r="E122" t="n">
-        <v>3150.555590056968</v>
+        <v>3157.854978139905</v>
       </c>
       <c r="F122" t="n">
         <v>2672406</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>3201.7275390625</v>
+        <v>3209.1455078125</v>
       </c>
       <c r="C123" t="n">
-        <v>3247.224690407079</v>
+        <v>3254.748069890119</v>
       </c>
       <c r="D123" t="n">
-        <v>3198.25405285145</v>
+        <v>3205.66397400469</v>
       </c>
       <c r="E123" t="n">
-        <v>3242.821740276959</v>
+        <v>3250.334918721318</v>
       </c>
       <c r="F123" t="n">
         <v>1687264</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>3237.489501953125</v>
+        <v>3244.990234375</v>
       </c>
       <c r="C124" t="n">
-        <v>3243.50677190743</v>
+        <v>3251.021445357318</v>
       </c>
       <c r="D124" t="n">
-        <v>3206.619879923552</v>
+        <v>3214.049092491952</v>
       </c>
       <c r="E124" t="n">
-        <v>3219.045936523513</v>
+        <v>3226.503938227926</v>
       </c>
       <c r="F124" t="n">
         <v>1656681</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>3248.349853515625</v>
+        <v>3255.875732421875</v>
       </c>
       <c r="C125" t="n">
-        <v>3257.204723383399</v>
+        <v>3264.751117530113</v>
       </c>
       <c r="D125" t="n">
-        <v>3233.722322253569</v>
+        <v>3241.214311636234</v>
       </c>
       <c r="E125" t="n">
-        <v>3248.398822959713</v>
+        <v>3255.924815319908</v>
       </c>
       <c r="F125" t="n">
         <v>1453008</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>3251.236083984375</v>
+        <v>3258.76904296875</v>
       </c>
       <c r="C126" t="n">
-        <v>3256.66643685331</v>
+        <v>3264.211977706358</v>
       </c>
       <c r="D126" t="n">
-        <v>3230.786922514353</v>
+        <v>3238.272501766638</v>
       </c>
       <c r="E126" t="n">
-        <v>3235.238842033041</v>
+        <v>3242.734736170579</v>
       </c>
       <c r="F126" t="n">
         <v>1848238</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>3257.449462890625</v>
+        <v>3264.996337890625</v>
       </c>
       <c r="C127" t="n">
-        <v>3284.503051398135</v>
+        <v>3292.112604285572</v>
       </c>
       <c r="D127" t="n">
-        <v>3230.787152200899</v>
+        <v>3238.272255827842</v>
       </c>
       <c r="E127" t="n">
-        <v>3230.787152200899</v>
+        <v>3238.272255827842</v>
       </c>
       <c r="F127" t="n">
         <v>1789326</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>3201.385009765625</v>
+        <v>3208.80224609375</v>
       </c>
       <c r="C128" t="n">
-        <v>3253.046339356779</v>
+        <v>3260.583268970603</v>
       </c>
       <c r="D128" t="n">
-        <v>3194.780584533455</v>
+        <v>3202.182519177275</v>
       </c>
       <c r="E128" t="n">
-        <v>3253.046339356779</v>
+        <v>3260.583268970603</v>
       </c>
       <c r="F128" t="n">
         <v>1407431</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>3201.8251953125</v>
+        <v>3209.243408203125</v>
       </c>
       <c r="C129" t="n">
-        <v>3223.937884547235</v>
+        <v>3231.407329665206</v>
       </c>
       <c r="D129" t="n">
-        <v>3190.475511790733</v>
+        <v>3197.867428939564</v>
       </c>
       <c r="E129" t="n">
-        <v>3223.937884547235</v>
+        <v>3231.407329665206</v>
       </c>
       <c r="F129" t="n">
         <v>1110172</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>3189.5947265625</v>
+        <v>3196.98486328125</v>
       </c>
       <c r="C130" t="n">
-        <v>3218.213901551547</v>
+        <v>3225.670347514599</v>
       </c>
       <c r="D130" t="n">
-        <v>3180.006270999763</v>
+        <v>3187.374191730714</v>
       </c>
       <c r="E130" t="n">
-        <v>3210.190795996349</v>
+        <v>3217.628652811862</v>
       </c>
       <c r="F130" t="n">
         <v>1515240</v>
@@ -3041,16 +3041,16 @@
         <v>45120</v>
       </c>
       <c r="B131" t="n">
-        <v>3268.506103515625</v>
+        <v>3276.078369140625</v>
       </c>
       <c r="C131" t="n">
-        <v>3294.825869335438</v>
+        <v>3302.459110908368</v>
       </c>
       <c r="D131" t="n">
-        <v>3202.168263886153</v>
+        <v>3209.586842252585</v>
       </c>
       <c r="E131" t="n">
-        <v>3213.175640853144</v>
+        <v>3220.619720405619</v>
       </c>
       <c r="F131" t="n">
         <v>4585146</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>3438.850830078125</v>
+        <v>3446.818115234375</v>
       </c>
       <c r="C132" t="n">
-        <v>3448.83104178967</v>
+        <v>3456.821449551858</v>
       </c>
       <c r="D132" t="n">
-        <v>3279.708734214198</v>
+        <v>3287.30731176411</v>
       </c>
       <c r="E132" t="n">
-        <v>3292.428368326604</v>
+        <v>3300.056415300188</v>
       </c>
       <c r="F132" t="n">
         <v>6306101</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>3416.39599609375</v>
+        <v>3424.311279296875</v>
       </c>
       <c r="C133" t="n">
-        <v>3473.340774550362</v>
+        <v>3481.387990365789</v>
       </c>
       <c r="D133" t="n">
-        <v>3402.062041741929</v>
+        <v>3409.944115297155</v>
       </c>
       <c r="E133" t="n">
-        <v>3434.301375828267</v>
+        <v>3442.258143142607</v>
       </c>
       <c r="F133" t="n">
         <v>2743228</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>3421.434814453125</v>
+        <v>3429.36181640625</v>
       </c>
       <c r="C134" t="n">
-        <v>3447.99918481323</v>
+        <v>3455.987732821489</v>
       </c>
       <c r="D134" t="n">
-        <v>3390.271616168513</v>
+        <v>3398.126417203876</v>
       </c>
       <c r="E134" t="n">
-        <v>3401.034383203969</v>
+        <v>3408.914120115634</v>
       </c>
       <c r="F134" t="n">
         <v>2600090</v>
@@ -3121,16 +3121,16 @@
         <v>45126</v>
       </c>
       <c r="B135" t="n">
-        <v>3395.212890625</v>
+        <v>3403.079345703125</v>
       </c>
       <c r="C135" t="n">
-        <v>3441.003621832693</v>
+        <v>3448.976170620298</v>
       </c>
       <c r="D135" t="n">
-        <v>3371.338972176802</v>
+        <v>3379.15011316622</v>
       </c>
       <c r="E135" t="n">
-        <v>3424.516923379997</v>
+        <v>3432.451273716741</v>
       </c>
       <c r="F135" t="n">
         <v>2405370</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>3397.419921875</v>
+        <v>3405.291259765625</v>
       </c>
       <c r="C136" t="n">
-        <v>3412.723029421298</v>
+        <v>3420.629822431703</v>
       </c>
       <c r="D136" t="n">
-        <v>3370.688281079852</v>
+        <v>3378.49768556751</v>
       </c>
       <c r="E136" t="n">
-        <v>3387.413997806941</v>
+        <v>3395.262153397156</v>
       </c>
       <c r="F136" t="n">
         <v>1715404</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>3304.2275390625</v>
+        <v>3311.8828125</v>
       </c>
       <c r="C137" t="n">
-        <v>3369.560516200454</v>
+        <v>3377.367153851999</v>
       </c>
       <c r="D137" t="n">
-        <v>3295.153494501963</v>
+        <v>3302.787745085717</v>
       </c>
       <c r="E137" t="n">
-        <v>3339.297495066741</v>
+        <v>3347.03401899304</v>
       </c>
       <c r="F137" t="n">
         <v>3770223</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>3330.173828125</v>
+        <v>3337.8896484375</v>
       </c>
       <c r="C138" t="n">
-        <v>3348.518062009614</v>
+        <v>3356.276384851931</v>
       </c>
       <c r="D138" t="n">
-        <v>3307.954780479446</v>
+        <v>3315.619120542567</v>
       </c>
       <c r="E138" t="n">
-        <v>3316.685385636829</v>
+        <v>3324.369954007567</v>
       </c>
       <c r="F138" t="n">
         <v>1680132</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>3334.490234375</v>
+        <v>3342.2158203125</v>
       </c>
       <c r="C139" t="n">
-        <v>3341.994857435636</v>
+        <v>3349.737830621653</v>
       </c>
       <c r="D139" t="n">
-        <v>3315.900754964006</v>
+        <v>3323.583271463413</v>
       </c>
       <c r="E139" t="n">
-        <v>3332.87171697772</v>
+        <v>3340.593553018125</v>
       </c>
       <c r="F139" t="n">
         <v>1272980</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>3323.846923828125</v>
+        <v>3331.5478515625</v>
       </c>
       <c r="C140" t="n">
-        <v>3355.777797159499</v>
+        <v>3363.552704638927</v>
       </c>
       <c r="D140" t="n">
-        <v>3320.609649387321</v>
+        <v>3328.30307677132</v>
       </c>
       <c r="E140" t="n">
-        <v>3335.667753492603</v>
+        <v>3343.396068575762</v>
       </c>
       <c r="F140" t="n">
         <v>1066803</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>3332.282958984375</v>
+        <v>3340.003173828125</v>
       </c>
       <c r="C141" t="n">
-        <v>3346.752379649702</v>
+        <v>3354.506117167719</v>
       </c>
       <c r="D141" t="n">
-        <v>3320.658517266403</v>
+        <v>3328.351800667474</v>
       </c>
       <c r="E141" t="n">
-        <v>3330.370100422836</v>
+        <v>3338.085883566384</v>
       </c>
       <c r="F141" t="n">
         <v>1701769</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>3291.572265625</v>
+        <v>3299.198486328125</v>
       </c>
       <c r="C142" t="n">
-        <v>3329.143757001239</v>
+        <v>3336.857026829298</v>
       </c>
       <c r="D142" t="n">
-        <v>3267.636507093641</v>
+        <v>3275.207271205652</v>
       </c>
       <c r="E142" t="n">
-        <v>3320.609299463217</v>
+        <v>3328.302795866446</v>
       </c>
       <c r="F142" t="n">
         <v>2599831</v>
@@ -3281,16 +3281,16 @@
         <v>45138</v>
       </c>
       <c r="B143" t="n">
-        <v>3356.365966796875</v>
+        <v>3364.142333984375</v>
       </c>
       <c r="C143" t="n">
-        <v>3361.467002729406</v>
+        <v>3369.255188511434</v>
       </c>
       <c r="D143" t="n">
-        <v>3296.967721586536</v>
+        <v>3304.606468928758</v>
       </c>
       <c r="E143" t="n">
-        <v>3300.401143396423</v>
+        <v>3308.047845636581</v>
       </c>
       <c r="F143" t="n">
         <v>2743678</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>3386.384033203125</v>
+        <v>3394.22998046875</v>
       </c>
       <c r="C144" t="n">
-        <v>3394.182757825417</v>
+        <v>3402.046774034649</v>
       </c>
       <c r="D144" t="n">
-        <v>3350.038762420173</v>
+        <v>3357.800500961944</v>
       </c>
       <c r="E144" t="n">
-        <v>3350.038762420173</v>
+        <v>3357.800500961944</v>
       </c>
       <c r="F144" t="n">
         <v>1956167</v>
@@ -3321,16 +3321,16 @@
         <v>45140</v>
       </c>
       <c r="B145" t="n">
-        <v>3375.200927734375</v>
+        <v>3383.0205078125</v>
       </c>
       <c r="C145" t="n">
-        <v>3380.841549676541</v>
+        <v>3388.67419780481</v>
       </c>
       <c r="D145" t="n">
-        <v>3348.665671760179</v>
+        <v>3356.423775628909</v>
       </c>
       <c r="E145" t="n">
-        <v>3369.609402577965</v>
+        <v>3377.416028352138</v>
       </c>
       <c r="F145" t="n">
         <v>1914899</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>3335.27490234375</v>
+        <v>3343.00244140625</v>
       </c>
       <c r="C146" t="n">
-        <v>3367.941505881542</v>
+        <v>3375.74473059583</v>
       </c>
       <c r="D146" t="n">
-        <v>3303.932714427739</v>
+        <v>3311.587636393142</v>
       </c>
       <c r="E146" t="n">
-        <v>3354.943552061421</v>
+        <v>3362.71666165812</v>
       </c>
       <c r="F146" t="n">
         <v>2026351</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>3378.045654296875</v>
+        <v>3385.8720703125</v>
       </c>
       <c r="C147" t="n">
-        <v>3404.973443047432</v>
+        <v>3412.862246638214</v>
       </c>
       <c r="D147" t="n">
-        <v>3336.550251560092</v>
+        <v>3344.28052906316</v>
       </c>
       <c r="E147" t="n">
-        <v>3336.550251560092</v>
+        <v>3344.28052906316</v>
       </c>
       <c r="F147" t="n">
         <v>2248493</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>3417.775390625</v>
+        <v>3425.69384765625</v>
       </c>
       <c r="C148" t="n">
-        <v>3421.650204626006</v>
+        <v>3429.577639002068</v>
       </c>
       <c r="D148" t="n">
-        <v>3375.789497324898</v>
+        <v>3383.610679534365</v>
       </c>
       <c r="E148" t="n">
-        <v>3388.247866168357</v>
+        <v>3396.097912491785</v>
       </c>
       <c r="F148" t="n">
         <v>1853889</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>3404.58154296875</v>
+        <v>3412.46923828125</v>
       </c>
       <c r="C149" t="n">
-        <v>3423.563319112574</v>
+        <v>3431.494991185455</v>
       </c>
       <c r="D149" t="n">
-        <v>3390.847854194365</v>
+        <v>3398.703731454866</v>
       </c>
       <c r="E149" t="n">
-        <v>3417.775646070551</v>
+        <v>3425.693909329177</v>
       </c>
       <c r="F149" t="n">
         <v>1634225</v>
@@ -3421,16 +3421,16 @@
         <v>45147</v>
       </c>
       <c r="B150" t="n">
-        <v>3396.63525390625</v>
+        <v>3404.5048828125</v>
       </c>
       <c r="C150" t="n">
-        <v>3401.049653514215</v>
+        <v>3408.929510097022</v>
       </c>
       <c r="D150" t="n">
-        <v>3359.897687290378</v>
+        <v>3367.682199310482</v>
       </c>
       <c r="E150" t="n">
-        <v>3398.989504565229</v>
+        <v>3406.864588010354</v>
       </c>
       <c r="F150" t="n">
         <v>1794589</v>
@@ -3441,16 +3441,16 @@
         <v>45148</v>
       </c>
       <c r="B151" t="n">
-        <v>3376.623291015625</v>
+        <v>3384.446533203125</v>
       </c>
       <c r="C151" t="n">
-        <v>3398.989390011654</v>
+        <v>3406.864451840895</v>
       </c>
       <c r="D151" t="n">
-        <v>3364.802462342273</v>
+        <v>3372.598317048968</v>
       </c>
       <c r="E151" t="n">
-        <v>3384.372918712048</v>
+        <v>3392.214115882709</v>
       </c>
       <c r="F151" t="n">
         <v>1096701</v>
@@ -3461,16 +3461,16 @@
         <v>45149</v>
       </c>
       <c r="B152" t="n">
-        <v>3383.196044921875</v>
+        <v>3391.0341796875</v>
       </c>
       <c r="C152" t="n">
-        <v>3400.706353713774</v>
+        <v>3408.585056084195</v>
       </c>
       <c r="D152" t="n">
-        <v>3349.057972000423</v>
+        <v>3356.817016221887</v>
       </c>
       <c r="E152" t="n">
-        <v>3372.699631104598</v>
+        <v>3380.513447945703</v>
       </c>
       <c r="F152" t="n">
         <v>1679974</v>
@@ -3481,16 +3481,16 @@
         <v>45152</v>
       </c>
       <c r="B153" t="n">
-        <v>3384.22607421875</v>
+        <v>3392.06689453125</v>
       </c>
       <c r="C153" t="n">
-        <v>3389.278013664826</v>
+        <v>3397.130538676881</v>
       </c>
       <c r="D153" t="n">
-        <v>3346.114994098617</v>
+        <v>3353.867515897784</v>
       </c>
       <c r="E153" t="n">
-        <v>3375.249984406506</v>
+        <v>3383.070008263395</v>
       </c>
       <c r="F153" t="n">
         <v>1190425</v>
@@ -3501,16 +3501,16 @@
         <v>45154</v>
       </c>
       <c r="B154" t="n">
-        <v>3392.61328125</v>
+        <v>3400.47314453125</v>
       </c>
       <c r="C154" t="n">
-        <v>3400.068807786974</v>
+        <v>3407.94594371748</v>
       </c>
       <c r="D154" t="n">
-        <v>3369.854645842708</v>
+        <v>3377.661782877864</v>
       </c>
       <c r="E154" t="n">
-        <v>3384.373164127253</v>
+        <v>3392.213937052887</v>
       </c>
       <c r="F154" t="n">
         <v>1328445</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>3370.394287109375</v>
+        <v>3378.202880859375</v>
       </c>
       <c r="C155" t="n">
-        <v>3394.967827518929</v>
+        <v>3402.83335371591</v>
       </c>
       <c r="D155" t="n">
-        <v>3348.273191062122</v>
+        <v>3356.030534235002</v>
       </c>
       <c r="E155" t="n">
-        <v>3389.278108699088</v>
+        <v>3397.130452847018</v>
       </c>
       <c r="F155" t="n">
         <v>1843241</v>
@@ -3541,16 +3541,16 @@
         <v>45156</v>
       </c>
       <c r="B156" t="n">
-        <v>3303.05029296875</v>
+        <v>3310.702880859375</v>
       </c>
       <c r="C156" t="n">
-        <v>3345.134142838105</v>
+        <v>3352.884231623761</v>
       </c>
       <c r="D156" t="n">
-        <v>3292.651832972463</v>
+        <v>3300.280329456058</v>
       </c>
       <c r="E156" t="n">
-        <v>3345.134142838105</v>
+        <v>3352.884231623761</v>
       </c>
       <c r="F156" t="n">
         <v>2526749</v>
@@ -3561,16 +3561,16 @@
         <v>45159</v>
       </c>
       <c r="B157" t="n">
-        <v>3336.942626953125</v>
+        <v>3344.673828125</v>
       </c>
       <c r="C157" t="n">
-        <v>3344.888641953963</v>
+        <v>3352.638252864139</v>
       </c>
       <c r="D157" t="n">
-        <v>3307.856734560822</v>
+        <v>3315.520548033691</v>
       </c>
       <c r="E157" t="n">
-        <v>3310.799667598688</v>
+        <v>3318.470299410945</v>
       </c>
       <c r="F157" t="n">
         <v>1375579</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>3317.813720703125</v>
+        <v>3325.50048828125</v>
       </c>
       <c r="C158" t="n">
-        <v>3346.115023901189</v>
+        <v>3353.867360422646</v>
       </c>
       <c r="D158" t="n">
-        <v>3301.039145283851</v>
+        <v>3308.687049238722</v>
       </c>
       <c r="E158" t="n">
-        <v>3335.324268913527</v>
+        <v>3343.051605229257</v>
       </c>
       <c r="F158" t="n">
         <v>1222012</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>3333.607177734375</v>
+        <v>3341.330810546875</v>
       </c>
       <c r="C159" t="n">
-        <v>3337.285843787933</v>
+        <v>3345.017999699984</v>
       </c>
       <c r="D159" t="n">
-        <v>3311.780425816597</v>
+        <v>3319.453488238431</v>
       </c>
       <c r="E159" t="n">
-        <v>3323.552157187983</v>
+        <v>3331.252493528379</v>
       </c>
       <c r="F159" t="n">
         <v>1330046</v>
@@ -3621,16 +3621,16 @@
         <v>45162</v>
       </c>
       <c r="B160" t="n">
-        <v>3323.30712890625</v>
+        <v>3331.0068359375</v>
       </c>
       <c r="C160" t="n">
-        <v>3348.125912060905</v>
+        <v>3355.883121258447</v>
       </c>
       <c r="D160" t="n">
-        <v>3313.840790111406</v>
+        <v>3321.518564762484</v>
       </c>
       <c r="E160" t="n">
-        <v>3343.171926887314</v>
+        <v>3350.917658290901</v>
       </c>
       <c r="F160" t="n">
         <v>1152881</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>3316.97998046875</v>
+        <v>3324.664794921875</v>
       </c>
       <c r="C161" t="n">
-        <v>3321.394380166074</v>
+        <v>3329.08942194731</v>
       </c>
       <c r="D161" t="n">
-        <v>3286.52057465791</v>
+        <v>3294.1348204361</v>
       </c>
       <c r="E161" t="n">
-        <v>3310.799772993194</v>
+        <v>3318.470269075991</v>
       </c>
       <c r="F161" t="n">
         <v>1158046</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>3311.33935546875</v>
+        <v>3319.01123046875</v>
       </c>
       <c r="C162" t="n">
-        <v>3329.438346311181</v>
+        <v>3337.152153949447</v>
       </c>
       <c r="D162" t="n">
-        <v>3296.183297755057</v>
+        <v>3303.82005845</v>
       </c>
       <c r="E162" t="n">
-        <v>3329.438346311181</v>
+        <v>3337.152153949447</v>
       </c>
       <c r="F162" t="n">
         <v>1037485</v>
@@ -3681,16 +3681,16 @@
         <v>45167</v>
       </c>
       <c r="B163" t="n">
-        <v>3311.927978515625</v>
+        <v>3319.60107421875</v>
       </c>
       <c r="C163" t="n">
-        <v>3325.073224236794</v>
+        <v>3332.776774928408</v>
       </c>
       <c r="D163" t="n">
-        <v>3300.990172257571</v>
+        <v>3308.637927181928</v>
       </c>
       <c r="E163" t="n">
-        <v>3316.734913251894</v>
+        <v>3324.419145691841</v>
       </c>
       <c r="F163" t="n">
         <v>944517</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>3326.4462890625</v>
+        <v>3334.153076171875</v>
       </c>
       <c r="C164" t="n">
-        <v>3343.270200341436</v>
+        <v>3351.015965474596</v>
       </c>
       <c r="D164" t="n">
-        <v>3318.696661019113</v>
+        <v>3326.385493612372</v>
       </c>
       <c r="E164" t="n">
-        <v>3333.362229757503</v>
+        <v>3341.085039877011</v>
       </c>
       <c r="F164" t="n">
         <v>1188200</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>3292.94580078125</v>
+        <v>3300.5751953125</v>
       </c>
       <c r="C165" t="n">
-        <v>3352.39290226467</v>
+        <v>3360.160029214975</v>
       </c>
       <c r="D165" t="n">
-        <v>3280.045801074536</v>
+        <v>3287.645307720236</v>
       </c>
       <c r="E165" t="n">
-        <v>3336.304964713869</v>
+        <v>3344.034817676019</v>
       </c>
       <c r="F165" t="n">
         <v>3417652</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>3314.919677734375</v>
+        <v>3322.60009765625</v>
       </c>
       <c r="C166" t="n">
-        <v>3324.533306750865</v>
+        <v>3332.236000729127</v>
       </c>
       <c r="D166" t="n">
-        <v>3292.94587383654</v>
+        <v>3300.575382105155</v>
       </c>
       <c r="E166" t="n">
-        <v>3301.970820455419</v>
+        <v>3309.621238847519</v>
       </c>
       <c r="F166" t="n">
         <v>1277950</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>3353.472412109375</v>
+        <v>3361.24169921875</v>
       </c>
       <c r="C167" t="n">
-        <v>3367.549538510226</v>
+        <v>3375.351439347476</v>
       </c>
       <c r="D167" t="n">
-        <v>3305.944088393439</v>
+        <v>3313.603262417809</v>
       </c>
       <c r="E167" t="n">
-        <v>3313.742813545552</v>
+        <v>3321.420055568506</v>
       </c>
       <c r="F167" t="n">
         <v>1828332</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>3364.115966796875</v>
+        <v>3371.909912109375</v>
       </c>
       <c r="C168" t="n">
-        <v>3381.430127380128</v>
+        <v>3389.264185941413</v>
       </c>
       <c r="D168" t="n">
-        <v>3340.3761148914</v>
+        <v>3348.115059987111</v>
       </c>
       <c r="E168" t="n">
-        <v>3354.943729515532</v>
+        <v>3362.71642469383</v>
       </c>
       <c r="F168" t="n">
         <v>1501842</v>
@@ -3801,16 +3801,16 @@
         <v>45175</v>
       </c>
       <c r="B169" t="n">
-        <v>3364.655517578125</v>
+        <v>3372.45068359375</v>
       </c>
       <c r="C169" t="n">
-        <v>3378.389206195074</v>
+        <v>3386.216190143387</v>
       </c>
       <c r="D169" t="n">
-        <v>3333.460616459702</v>
+        <v>3341.183510757824</v>
       </c>
       <c r="E169" t="n">
-        <v>3368.677622185984</v>
+        <v>3376.482106532412</v>
       </c>
       <c r="F169" t="n">
         <v>1314818</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>3389.52294921875</v>
+        <v>3397.3759765625</v>
       </c>
       <c r="C170" t="n">
-        <v>3394.182592951849</v>
+        <v>3402.04641600644</v>
       </c>
       <c r="D170" t="n">
-        <v>3357.199784274764</v>
+        <v>3364.977923587973</v>
       </c>
       <c r="E170" t="n">
-        <v>3365.538094112941</v>
+        <v>3373.335552066601</v>
       </c>
       <c r="F170" t="n">
         <v>1885092</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>3376.427001953125</v>
+        <v>3384.249755859375</v>
       </c>
       <c r="C171" t="n">
-        <v>3399.087682300396</v>
+        <v>3406.962938134158</v>
       </c>
       <c r="D171" t="n">
-        <v>3369.707448501315</v>
+        <v>3377.514634052915</v>
       </c>
       <c r="E171" t="n">
-        <v>3389.523149861023</v>
+        <v>3397.376245883997</v>
       </c>
       <c r="F171" t="n">
         <v>1518917</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>3414.439697265625</v>
+        <v>3422.3505859375</v>
       </c>
       <c r="C172" t="n">
-        <v>3419.393682203975</v>
+        <v>3427.316048724869</v>
       </c>
       <c r="D172" t="n">
-        <v>3379.467940501414</v>
+        <v>3387.297803383129</v>
       </c>
       <c r="E172" t="n">
-        <v>3396.144560236834</v>
+        <v>3404.01306104859</v>
       </c>
       <c r="F172" t="n">
         <v>1783604</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>3512.685302734375</v>
+        <v>3520.8232421875</v>
       </c>
       <c r="C173" t="n">
-        <v>3521.61205688582</v>
+        <v>3529.770677208006</v>
       </c>
       <c r="D173" t="n">
-        <v>3416.745627399057</v>
+        <v>3424.661300636526</v>
       </c>
       <c r="E173" t="n">
-        <v>3425.574427469856</v>
+        <v>3433.510554643339</v>
       </c>
       <c r="F173" t="n">
         <v>4476016</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>3499.9814453125</v>
+        <v>3508.09033203125</v>
       </c>
       <c r="C174" t="n">
-        <v>3520.581977380774</v>
+        <v>3528.738592175658</v>
       </c>
       <c r="D174" t="n">
-        <v>3477.566008668177</v>
+        <v>3485.622962472613</v>
       </c>
       <c r="E174" t="n">
-        <v>3503.169622894495</v>
+        <v>3511.285896101218</v>
       </c>
       <c r="F174" t="n">
         <v>1754929</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>3492.329833984375</v>
+        <v>3500.4208984375</v>
       </c>
       <c r="C175" t="n">
-        <v>3529.263549914846</v>
+        <v>3537.440182767948</v>
       </c>
       <c r="D175" t="n">
-        <v>3478.1547536105</v>
+        <v>3486.212977096596</v>
       </c>
       <c r="E175" t="n">
-        <v>3502.139611336056</v>
+        <v>3510.253403178802</v>
       </c>
       <c r="F175" t="n">
         <v>2604721</v>
@@ -3941,16 +3941,16 @@
         <v>45184</v>
       </c>
       <c r="B176" t="n">
-        <v>3529.85205078125</v>
+        <v>3538.030517578125</v>
       </c>
       <c r="C176" t="n">
-        <v>3538.729946727151</v>
+        <v>3546.928983104897</v>
       </c>
       <c r="D176" t="n">
-        <v>3494.683904985895</v>
+        <v>3502.780889185608</v>
       </c>
       <c r="E176" t="n">
-        <v>3499.981328181217</v>
+        <v>3508.090586209716</v>
       </c>
       <c r="F176" t="n">
         <v>2952897</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>3537.552490234375</v>
+        <v>3545.74853515625</v>
       </c>
       <c r="C177" t="n">
-        <v>3550.452490151881</v>
+        <v>3558.678422680825</v>
       </c>
       <c r="D177" t="n">
-        <v>3507.240376361048</v>
+        <v>3515.366192092637</v>
       </c>
       <c r="E177" t="n">
-        <v>3511.949117024919</v>
+        <v>3520.085842290744</v>
       </c>
       <c r="F177" t="n">
         <v>1395753</v>
@@ -3981,16 +3981,16 @@
         <v>45189</v>
       </c>
       <c r="B178" t="n">
-        <v>3537.45458984375</v>
+        <v>3545.650390625</v>
       </c>
       <c r="C178" t="n">
-        <v>3556.04406886999</v>
+        <v>3564.282938943823</v>
       </c>
       <c r="D178" t="n">
-        <v>3511.900073532294</v>
+        <v>3520.036667977623</v>
       </c>
       <c r="E178" t="n">
-        <v>3511.900073532294</v>
+        <v>3520.036667977623</v>
       </c>
       <c r="F178" t="n">
         <v>1649396</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>3517.099365234375</v>
+        <v>3525.248046875</v>
       </c>
       <c r="C179" t="n">
-        <v>3536.424577857624</v>
+        <v>3544.618033611503</v>
       </c>
       <c r="D179" t="n">
-        <v>3460.889295612122</v>
+        <v>3468.907745514947</v>
       </c>
       <c r="E179" t="n">
-        <v>3520.28754273175</v>
+        <v>3528.443610982971</v>
       </c>
       <c r="F179" t="n">
         <v>2004073</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>3535.10009765625</v>
+        <v>3543.290771484375</v>
       </c>
       <c r="C180" t="n">
-        <v>3564.627621430096</v>
+        <v>3572.886709252027</v>
       </c>
       <c r="D180" t="n">
-        <v>3497.234503153339</v>
+        <v>3505.337444038884</v>
       </c>
       <c r="E180" t="n">
-        <v>3515.823982168686</v>
+        <v>3523.969994072037</v>
       </c>
       <c r="F180" t="n">
         <v>1989083</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>3509.104248046875</v>
+        <v>3517.234375</v>
       </c>
       <c r="C181" t="n">
-        <v>3551.13923786272</v>
+        <v>3559.366754286068</v>
       </c>
       <c r="D181" t="n">
-        <v>3490.956160781554</v>
+        <v>3499.044241034726</v>
       </c>
       <c r="E181" t="n">
-        <v>3533.972128287417</v>
+        <v>3542.159870805403</v>
       </c>
       <c r="F181" t="n">
         <v>1238778</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>3517.49169921875</v>
+        <v>3525.64111328125</v>
       </c>
       <c r="C182" t="n">
-        <v>3526.565742964976</v>
+        <v>3534.736180002377</v>
       </c>
       <c r="D182" t="n">
-        <v>3468.737155314006</v>
+        <v>3476.773613611523</v>
       </c>
       <c r="E182" t="n">
-        <v>3499.736146505122</v>
+        <v>3507.844424052359</v>
       </c>
       <c r="F182" t="n">
         <v>1726062</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>3521.0234375</v>
+        <v>3529.180908203125</v>
       </c>
       <c r="C183" t="n">
-        <v>3545.253539692118</v>
+        <v>3553.467146445534</v>
       </c>
       <c r="D183" t="n">
-        <v>3488.062489755168</v>
+        <v>3496.143596875276</v>
       </c>
       <c r="E183" t="n">
-        <v>3521.710074016243</v>
+        <v>3529.869135511751</v>
       </c>
       <c r="F183" t="n">
         <v>1541134</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>3469.472900390625</v>
+        <v>3477.51123046875</v>
       </c>
       <c r="C184" t="n">
-        <v>3534.266525746858</v>
+        <v>3542.454974463325</v>
       </c>
       <c r="D184" t="n">
-        <v>3460.251805756297</v>
+        <v>3468.268771723942</v>
       </c>
       <c r="E184" t="n">
-        <v>3531.519740271789</v>
+        <v>3539.701825033576</v>
       </c>
       <c r="F184" t="n">
         <v>1755753</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>3461.47802734375</v>
+        <v>3469.49755859375</v>
       </c>
       <c r="C185" t="n">
-        <v>3500.569845209091</v>
+        <v>3508.679944145066</v>
       </c>
       <c r="D185" t="n">
-        <v>3438.86644333321</v>
+        <v>3446.833588202839</v>
       </c>
       <c r="E185" t="n">
-        <v>3469.914291912944</v>
+        <v>3477.95336824941</v>
       </c>
       <c r="F185" t="n">
         <v>2243791</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>3447.0087890625</v>
+        <v>3454.994873046875</v>
       </c>
       <c r="C186" t="n">
-        <v>3466.971542730132</v>
+        <v>3475.003876735062</v>
       </c>
       <c r="D186" t="n">
-        <v>3413.900789746179</v>
+        <v>3421.810168598865</v>
       </c>
       <c r="E186" t="n">
-        <v>3466.971542730132</v>
+        <v>3475.003876735062</v>
       </c>
       <c r="F186" t="n">
         <v>1948148</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>3470.453857421875</v>
+        <v>3478.49462890625</v>
       </c>
       <c r="C187" t="n">
-        <v>3480.508878844693</v>
+        <v>3488.572947031128</v>
       </c>
       <c r="D187" t="n">
-        <v>3411.153803369045</v>
+        <v>3419.057181243466</v>
       </c>
       <c r="E187" t="n">
-        <v>3419.982602667129</v>
+        <v>3427.906436182384</v>
       </c>
       <c r="F187" t="n">
         <v>1788138</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>3521.072265625</v>
+        <v>3529.230224609375</v>
       </c>
       <c r="C188" t="n">
-        <v>3555.063045802408</v>
+        <v>3563.299757896523</v>
       </c>
       <c r="D188" t="n">
-        <v>3483.647824135334</v>
+        <v>3491.719074573092</v>
       </c>
       <c r="E188" t="n">
-        <v>3486.39460948724</v>
+        <v>3494.472223941568</v>
       </c>
       <c r="F188" t="n">
         <v>2990768</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>3552.512451171875</v>
+        <v>3560.743408203125</v>
       </c>
       <c r="C189" t="n">
-        <v>3565.80474654769</v>
+        <v>3574.06650102542</v>
       </c>
       <c r="D189" t="n">
-        <v>3507.044279701035</v>
+        <v>3515.169889722018</v>
       </c>
       <c r="E189" t="n">
-        <v>3522.690825694753</v>
+        <v>3530.85268781887</v>
       </c>
       <c r="F189" t="n">
         <v>2075691</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>3569.140380859375</v>
+        <v>3577.409423828125</v>
       </c>
       <c r="C190" t="n">
-        <v>3609.017029350824</v>
+        <v>3617.378459192782</v>
       </c>
       <c r="D190" t="n">
-        <v>3561.930098823822</v>
+        <v>3570.182436892903</v>
       </c>
       <c r="E190" t="n">
-        <v>3575.712883679466</v>
+        <v>3583.99715393054</v>
       </c>
       <c r="F190" t="n">
         <v>4233074</v>
@@ -4241,16 +4241,16 @@
         <v>45209</v>
       </c>
       <c r="B191" t="n">
-        <v>3559.869873046875</v>
+        <v>3568.11767578125</v>
       </c>
       <c r="C191" t="n">
-        <v>3578.606642880296</v>
+        <v>3586.897856522085</v>
       </c>
       <c r="D191" t="n">
-        <v>3532.844129059829</v>
+        <v>3541.029316301755</v>
       </c>
       <c r="E191" t="n">
-        <v>3570.807918079242</v>
+        <v>3579.081062986489</v>
       </c>
       <c r="F191" t="n">
         <v>1848148</v>
@@ -4261,16 +4261,16 @@
         <v>45210</v>
       </c>
       <c r="B192" t="n">
-        <v>3541.2314453125</v>
+        <v>3549.43603515625</v>
       </c>
       <c r="C192" t="n">
-        <v>3580.568748457171</v>
+        <v>3588.864477906689</v>
       </c>
       <c r="D192" t="n">
-        <v>3536.424750188521</v>
+        <v>3544.618203521538</v>
       </c>
       <c r="E192" t="n">
-        <v>3580.568748457171</v>
+        <v>3588.864477906689</v>
       </c>
       <c r="F192" t="n">
         <v>2426417</v>
@@ -4281,16 +4281,16 @@
         <v>45211</v>
       </c>
       <c r="B193" t="n">
-        <v>3475.16259765625</v>
+        <v>3483.214111328125</v>
       </c>
       <c r="C193" t="n">
-        <v>3520.385525910412</v>
+        <v>3528.541815406407</v>
       </c>
       <c r="D193" t="n">
-        <v>3470.797294792283</v>
+        <v>3478.838694607697</v>
       </c>
       <c r="E193" t="n">
-        <v>3506.995276109325</v>
+        <v>3515.120542084459</v>
       </c>
       <c r="F193" t="n">
         <v>4241281</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>3502.92431640625</v>
+        <v>3511.0400390625</v>
       </c>
       <c r="C194" t="n">
-        <v>3508.957233463615</v>
+        <v>3517.086933436308</v>
       </c>
       <c r="D194" t="n">
-        <v>3457.946393055422</v>
+        <v>3465.957908963653</v>
       </c>
       <c r="E194" t="n">
-        <v>3462.85128155621</v>
+        <v>3470.874161316793</v>
       </c>
       <c r="F194" t="n">
         <v>2890357</v>
@@ -4321,16 +4321,16 @@
         <v>45215</v>
       </c>
       <c r="B195" t="n">
-        <v>3457.014404296875</v>
+        <v>3465.02392578125</v>
       </c>
       <c r="C195" t="n">
-        <v>3506.65173067849</v>
+        <v>3514.7762563791</v>
       </c>
       <c r="D195" t="n">
-        <v>3452.158612731875</v>
+        <v>3460.1568838822</v>
       </c>
       <c r="E195" t="n">
-        <v>3498.166369635434</v>
+        <v>3506.271235689416</v>
       </c>
       <c r="F195" t="n">
         <v>1671104</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>3440.337890625</v>
+        <v>3448.30859375</v>
       </c>
       <c r="C196" t="n">
-        <v>3466.922242596636</v>
+        <v>3474.95453733969</v>
       </c>
       <c r="D196" t="n">
-        <v>3436.708321034364</v>
+        <v>3444.67061503718</v>
       </c>
       <c r="E196" t="n">
-        <v>3462.85128094031</v>
+        <v>3470.874143927581</v>
       </c>
       <c r="F196" t="n">
         <v>1672065</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>3420.91455078125</v>
+        <v>3428.840576171875</v>
       </c>
       <c r="C197" t="n">
-        <v>3455.690163022515</v>
+        <v>3463.696761131782</v>
       </c>
       <c r="D197" t="n">
-        <v>3417.726373194315</v>
+        <v>3425.6450117952</v>
       </c>
       <c r="E197" t="n">
-        <v>3444.212771608852</v>
+        <v>3452.192777386036</v>
       </c>
       <c r="F197" t="n">
         <v>1408245</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>3398.6865234375</v>
+        <v>3406.56103515625</v>
       </c>
       <c r="C198" t="n">
-        <v>3419.537251994802</v>
+        <v>3427.460073348829</v>
       </c>
       <c r="D198" t="n">
-        <v>3394.998338921399</v>
+        <v>3402.864305382446</v>
       </c>
       <c r="E198" t="n">
-        <v>3412.308314296772</v>
+        <v>3420.214386723169</v>
       </c>
       <c r="F198" t="n">
         <v>1514545</v>
@@ -4401,16 +4401,16 @@
         <v>45219</v>
       </c>
       <c r="B199" t="n">
-        <v>3436.945556640625</v>
+        <v>3444.908447265625</v>
       </c>
       <c r="C199" t="n">
-        <v>3441.813912351103</v>
+        <v>3449.788082230722</v>
       </c>
       <c r="D199" t="n">
-        <v>3387.278003397667</v>
+        <v>3395.125821704073</v>
       </c>
       <c r="E199" t="n">
-        <v>3393.523185329792</v>
+        <v>3401.385472791975</v>
       </c>
       <c r="F199" t="n">
         <v>1481211</v>
@@ -4421,16 +4421,16 @@
         <v>45222</v>
       </c>
       <c r="B200" t="n">
-        <v>3353.93701171875</v>
+        <v>3361.70751953125</v>
       </c>
       <c r="C200" t="n">
-        <v>3421.602960952862</v>
+        <v>3429.530239386077</v>
       </c>
       <c r="D200" t="n">
-        <v>3345.233039135626</v>
+        <v>3352.983381307948</v>
       </c>
       <c r="E200" t="n">
-        <v>3415.751088740572</v>
+        <v>3423.66480937035</v>
       </c>
       <c r="F200" t="n">
         <v>1106272</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>3334.2177734375</v>
+        <v>3341.942626953125</v>
       </c>
       <c r="C201" t="n">
-        <v>3368.542386674204</v>
+        <v>3376.346764872154</v>
       </c>
       <c r="D201" t="n">
-        <v>3321.530272641318</v>
+        <v>3329.22573123082</v>
       </c>
       <c r="E201" t="n">
-        <v>3334.611083801135</v>
+        <v>3342.336848554464</v>
       </c>
       <c r="F201" t="n">
         <v>1518537</v>
@@ -4461,16 +4461,16 @@
         <v>45225</v>
       </c>
       <c r="B202" t="n">
-        <v>3281.746826171875</v>
+        <v>3289.35009765625</v>
       </c>
       <c r="C202" t="n">
-        <v>3318.087692279767</v>
+        <v>3325.775159616421</v>
       </c>
       <c r="D202" t="n">
-        <v>3275.108093549815</v>
+        <v>3282.695984174814</v>
       </c>
       <c r="E202" t="n">
-        <v>3312.530923242595</v>
+        <v>3320.205516452815</v>
       </c>
       <c r="F202" t="n">
         <v>1984471</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>3295.712890625</v>
+        <v>3303.348388671875</v>
       </c>
       <c r="C203" t="n">
-        <v>3306.580790443125</v>
+        <v>3314.241467208714</v>
       </c>
       <c r="D203" t="n">
-        <v>3281.992890454702</v>
+        <v>3289.596602045056</v>
       </c>
       <c r="E203" t="n">
-        <v>3294.778598448682</v>
+        <v>3302.411931930158</v>
       </c>
       <c r="F203" t="n">
         <v>1108851</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>3322.85791015625</v>
+        <v>3330.556396484375</v>
       </c>
       <c r="C204" t="n">
-        <v>3327.087076827186</v>
+        <v>3334.795361402084</v>
       </c>
       <c r="D204" t="n">
-        <v>3278.796346919809</v>
+        <v>3286.39275023646</v>
       </c>
       <c r="E204" t="n">
-        <v>3294.77848134424</v>
+        <v>3302.411912498579</v>
       </c>
       <c r="F204" t="n">
         <v>910972</v>
@@ -4521,16 +4521,16 @@
         <v>45230</v>
       </c>
       <c r="B205" t="n">
-        <v>3313.21923828125</v>
+        <v>3320.895263671875</v>
       </c>
       <c r="C205" t="n">
-        <v>3342.970594706633</v>
+        <v>3350.715547672194</v>
       </c>
       <c r="D205" t="n">
-        <v>3294.827538696069</v>
+        <v>3302.460954424357</v>
       </c>
       <c r="E205" t="n">
-        <v>3342.970594706633</v>
+        <v>3350.715547672194</v>
       </c>
       <c r="F205" t="n">
         <v>999811</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>3275.7470703125</v>
+        <v>3283.336669921875</v>
       </c>
       <c r="C206" t="n">
-        <v>3316.022237699277</v>
+        <v>3323.705151104896</v>
       </c>
       <c r="D206" t="n">
-        <v>3256.421079313215</v>
+        <v>3263.965902408839</v>
       </c>
       <c r="E206" t="n">
-        <v>3299.69577804163</v>
+        <v>3307.340864567096</v>
       </c>
       <c r="F206" t="n">
         <v>1563475</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>3304.712158203125</v>
+        <v>3312.36865234375</v>
       </c>
       <c r="C207" t="n">
-        <v>3320.30074250017</v>
+        <v>3327.993352919193</v>
       </c>
       <c r="D207" t="n">
-        <v>3288.090593982081</v>
+        <v>3295.708578593593</v>
       </c>
       <c r="E207" t="n">
-        <v>3288.090593982081</v>
+        <v>3295.708578593593</v>
       </c>
       <c r="F207" t="n">
         <v>1245384</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>3295.663818359375</v>
+        <v>3303.29931640625</v>
       </c>
       <c r="C208" t="n">
-        <v>3332.053912015711</v>
+        <v>3339.77371978116</v>
       </c>
       <c r="D208" t="n">
-        <v>3289.172756533653</v>
+        <v>3296.793215883433</v>
       </c>
       <c r="E208" t="n">
-        <v>3326.251263398081</v>
+        <v>3333.957627403903</v>
       </c>
       <c r="F208" t="n">
         <v>1402598</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>3324.52978515625</v>
+        <v>3332.232177734375</v>
       </c>
       <c r="C209" t="n">
-        <v>3336.381200359767</v>
+        <v>3344.111050731446</v>
       </c>
       <c r="D209" t="n">
-        <v>3303.630071249122</v>
+        <v>3311.284042603289</v>
       </c>
       <c r="E209" t="n">
-        <v>3319.366326426254</v>
+        <v>3327.056756113754</v>
       </c>
       <c r="F209" t="n">
         <v>1099852</v>
@@ -4621,16 +4621,16 @@
         <v>45237</v>
       </c>
       <c r="B210" t="n">
-        <v>3314.89111328125</v>
+        <v>3322.5712890625</v>
       </c>
       <c r="C210" t="n">
-        <v>3348.035551049513</v>
+        <v>3355.792518224366</v>
       </c>
       <c r="D210" t="n">
-        <v>3310.514515554571</v>
+        <v>3318.184551322555</v>
       </c>
       <c r="E210" t="n">
-        <v>3322.316706340862</v>
+        <v>3330.014086264881</v>
       </c>
       <c r="F210" t="n">
         <v>1191144</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>3325.80859375</v>
+        <v>3333.513916015625</v>
       </c>
       <c r="C211" t="n">
-        <v>3345.872224199597</v>
+        <v>3353.624030420649</v>
       </c>
       <c r="D211" t="n">
-        <v>3314.006401693481</v>
+        <v>3321.684380325018</v>
       </c>
       <c r="E211" t="n">
-        <v>3315.874986055946</v>
+        <v>3323.557293873689</v>
       </c>
       <c r="F211" t="n">
         <v>992899</v>
@@ -4661,16 +4661,16 @@
         <v>45239</v>
       </c>
       <c r="B212" t="n">
-        <v>3292.270751953125</v>
+        <v>3299.898193359375</v>
       </c>
       <c r="C212" t="n">
-        <v>3335.594681957866</v>
+        <v>3343.322495041446</v>
       </c>
       <c r="D212" t="n">
-        <v>3286.959861332189</v>
+        <v>3294.574998614606</v>
       </c>
       <c r="E212" t="n">
-        <v>3334.217855535022</v>
+        <v>3341.9424788254</v>
       </c>
       <c r="F212" t="n">
         <v>2112352</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>3278.5009765625</v>
+        <v>3286.09716796875</v>
       </c>
       <c r="C213" t="n">
-        <v>3292.270198942977</v>
+        <v>3299.898293236999</v>
       </c>
       <c r="D213" t="n">
-        <v>3267.58409431626</v>
+        <v>3275.154991623867</v>
       </c>
       <c r="E213" t="n">
-        <v>3282.976021859391</v>
+        <v>3290.582581815436</v>
       </c>
       <c r="F213" t="n">
         <v>1338557</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>3276.632568359375</v>
+        <v>3284.224365234375</v>
       </c>
       <c r="C214" t="n">
-        <v>3300.679484998896</v>
+        <v>3308.326997399757</v>
       </c>
       <c r="D214" t="n">
-        <v>3272.157522822207</v>
+        <v>3279.73895123629</v>
       </c>
       <c r="E214" t="n">
-        <v>3300.679484998896</v>
+        <v>3308.326997399757</v>
       </c>
       <c r="F214" t="n">
         <v>1030990</v>
@@ -4721,16 +4721,16 @@
         <v>45245</v>
       </c>
       <c r="B215" t="n">
-        <v>3348.183349609375</v>
+        <v>3355.940673828125</v>
       </c>
       <c r="C215" t="n">
-        <v>3356.739890231026</v>
+        <v>3364.517038889737</v>
       </c>
       <c r="D215" t="n">
-        <v>3300.728705688002</v>
+        <v>3308.376083401395</v>
       </c>
       <c r="E215" t="n">
-        <v>3327.332859785296</v>
+        <v>3335.041876013474</v>
       </c>
       <c r="F215" t="n">
         <v>2059802</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>3440.191650390625</v>
+        <v>3448.162109375</v>
       </c>
       <c r="C216" t="n">
-        <v>3471.172405414952</v>
+        <v>3479.214642620519</v>
       </c>
       <c r="D216" t="n">
-        <v>3357.920390200738</v>
+        <v>3365.700237797267</v>
       </c>
       <c r="E216" t="n">
-        <v>3373.509215362641</v>
+        <v>3381.325180159662</v>
       </c>
       <c r="F216" t="n">
         <v>3951984</v>
@@ -4761,16 +4761,16 @@
         <v>45247</v>
       </c>
       <c r="B217" t="n">
-        <v>3444.71533203125</v>
+        <v>3452.696533203125</v>
       </c>
       <c r="C217" t="n">
-        <v>3466.401906380404</v>
+        <v>3474.433354059153</v>
       </c>
       <c r="D217" t="n">
-        <v>3434.978620339562</v>
+        <v>3442.93726212778</v>
       </c>
       <c r="E217" t="n">
-        <v>3440.191302808486</v>
+        <v>3448.162022072901</v>
       </c>
       <c r="F217" t="n">
         <v>2021292</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>3461.5830078125</v>
+        <v>3469.60302734375</v>
       </c>
       <c r="C218" t="n">
-        <v>3475.64709451208</v>
+        <v>3483.699698629563</v>
       </c>
       <c r="D218" t="n">
-        <v>3433.700233180788</v>
+        <v>3441.655652095318</v>
       </c>
       <c r="E218" t="n">
-        <v>3433.700233180788</v>
+        <v>3441.655652095318</v>
       </c>
       <c r="F218" t="n">
         <v>1475621</v>
@@ -4801,16 +4801,16 @@
         <v>45251</v>
       </c>
       <c r="B219" t="n">
-        <v>3452.33740234375</v>
+        <v>3460.336181640625</v>
       </c>
       <c r="C219" t="n">
-        <v>3480.711931597187</v>
+        <v>3488.776452323911</v>
       </c>
       <c r="D219" t="n">
-        <v>3443.289104248994</v>
+        <v>3451.266919389983</v>
       </c>
       <c r="E219" t="n">
-        <v>3461.58259570793</v>
+        <v>3469.602795350691</v>
       </c>
       <c r="F219" t="n">
         <v>1807236</v>
@@ -4821,16 +4821,16 @@
         <v>45252</v>
       </c>
       <c r="B220" t="n">
-        <v>3471.958740234375</v>
+        <v>3480.0029296875</v>
       </c>
       <c r="C220" t="n">
-        <v>3474.417530113191</v>
+        <v>3482.467416342427</v>
       </c>
       <c r="D220" t="n">
-        <v>3423.717474904965</v>
+        <v>3431.649894055848</v>
       </c>
       <c r="E220" t="n">
-        <v>3442.305830342334</v>
+        <v>3450.281316898088</v>
       </c>
       <c r="F220" t="n">
         <v>1798051</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>3450.419921875</v>
+        <v>3458.413818359375</v>
       </c>
       <c r="C221" t="n">
-        <v>3485.580618007553</v>
+        <v>3493.655974421898</v>
       </c>
       <c r="D221" t="n">
-        <v>3442.30591507518</v>
+        <v>3450.281013114177</v>
       </c>
       <c r="E221" t="n">
-        <v>3471.811394347253</v>
+        <v>3479.854850369441</v>
       </c>
       <c r="F221" t="n">
         <v>2729804</v>
@@ -4861,16 +4861,16 @@
         <v>45254</v>
       </c>
       <c r="B222" t="n">
-        <v>3400.11328125</v>
+        <v>3407.99072265625</v>
       </c>
       <c r="C222" t="n">
-        <v>3446.781067723274</v>
+        <v>3454.766629866421</v>
       </c>
       <c r="D222" t="n">
-        <v>3396.080769577894</v>
+        <v>3403.94886839118</v>
       </c>
       <c r="E222" t="n">
-        <v>3436.650804835666</v>
+        <v>3444.612897010102</v>
       </c>
       <c r="F222" t="n">
         <v>1989733</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>3412.947998046875</v>
+        <v>3420.855224609375</v>
       </c>
       <c r="C223" t="n">
-        <v>3423.865121842719</v>
+        <v>3431.797641545143</v>
       </c>
       <c r="D223" t="n">
-        <v>3376.410474193481</v>
+        <v>3384.233049457659</v>
       </c>
       <c r="E223" t="n">
-        <v>3400.113306164249</v>
+        <v>3407.990796904043</v>
       </c>
       <c r="F223" t="n">
         <v>1689195</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>3455.8291015625</v>
+        <v>3463.8359375</v>
       </c>
       <c r="C224" t="n">
-        <v>3460.009044268054</v>
+        <v>3468.025564745642</v>
       </c>
       <c r="D224" t="n">
-        <v>3418.504720014967</v>
+        <v>3426.425078817535</v>
       </c>
       <c r="E224" t="n">
-        <v>3423.618954831466</v>
+        <v>3431.551162842405</v>
       </c>
       <c r="F224" t="n">
         <v>1441634</v>
@@ -4921,16 +4921,16 @@
         <v>45260</v>
       </c>
       <c r="B225" t="n">
-        <v>3430.1103515625</v>
+        <v>3438.05712890625</v>
       </c>
       <c r="C225" t="n">
-        <v>3458.681298052731</v>
+        <v>3466.694267713051</v>
       </c>
       <c r="D225" t="n">
-        <v>3423.619050192472</v>
+        <v>3431.55078868284</v>
       </c>
       <c r="E225" t="n">
-        <v>3441.764871596422</v>
+        <v>3449.738649784537</v>
       </c>
       <c r="F225" t="n">
         <v>3266235</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>3453.763916015625</v>
+        <v>3461.765869140625</v>
       </c>
       <c r="C226" t="n">
-        <v>3458.976598915331</v>
+        <v>3466.99062919593</v>
       </c>
       <c r="D226" t="n">
-        <v>3432.520114173733</v>
+        <v>3440.472847980138</v>
       </c>
       <c r="E226" t="n">
-        <v>3442.306050494038</v>
+        <v>3450.281457130903</v>
       </c>
       <c r="F226" t="n">
         <v>1172141</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>3454.550537109375</v>
+        <v>3462.554443359375</v>
       </c>
       <c r="C227" t="n">
-        <v>3489.317921853042</v>
+        <v>3497.402381241593</v>
       </c>
       <c r="D227" t="n">
-        <v>3440.338779710426</v>
+        <v>3448.309758500646</v>
       </c>
       <c r="E227" t="n">
-        <v>3486.219702552881</v>
+        <v>3494.296983625019</v>
       </c>
       <c r="F227" t="n">
         <v>1625213</v>
@@ -4981,16 +4981,16 @@
         <v>45265</v>
       </c>
       <c r="B228" t="n">
-        <v>3473.38525390625</v>
+        <v>3481.4326171875</v>
       </c>
       <c r="C228" t="n">
-        <v>3479.679660354469</v>
+        <v>3487.741606923097</v>
       </c>
       <c r="D228" t="n">
-        <v>3445.059944656831</v>
+        <v>3453.041682032252</v>
       </c>
       <c r="E228" t="n">
-        <v>3479.679660354469</v>
+        <v>3487.741606923097</v>
       </c>
       <c r="F228" t="n">
         <v>1377656</v>
@@ -5001,16 +5001,16 @@
         <v>45266</v>
       </c>
       <c r="B229" t="n">
-        <v>3544.68994140625</v>
+        <v>3552.90234375</v>
       </c>
       <c r="C229" t="n">
-        <v>3553.295705992943</v>
+        <v>3561.528046329135</v>
       </c>
       <c r="D229" t="n">
-        <v>3467.041164842507</v>
+        <v>3475.073669083691</v>
       </c>
       <c r="E229" t="n">
-        <v>3474.368550783564</v>
+        <v>3482.418031246215</v>
       </c>
       <c r="F229" t="n">
         <v>1896572</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>3555.31201171875</v>
+        <v>3563.548828125</v>
       </c>
       <c r="C230" t="n">
-        <v>3570.70418170525</v>
+        <v>3578.976658126107</v>
       </c>
       <c r="D230" t="n">
-        <v>3532.494487775922</v>
+        <v>3540.678441379992</v>
       </c>
       <c r="E230" t="n">
-        <v>3545.575299038336</v>
+        <v>3553.789557785938</v>
       </c>
       <c r="F230" t="n">
         <v>1967653</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>3566.917236328125</v>
+        <v>3575.18115234375</v>
       </c>
       <c r="C231" t="n">
-        <v>3584.915626178268</v>
+        <v>3593.221241278083</v>
       </c>
       <c r="D231" t="n">
-        <v>3542.67366428536</v>
+        <v>3550.881412234836</v>
       </c>
       <c r="E231" t="n">
-        <v>3573.113434816364</v>
+        <v>3581.391706327373</v>
       </c>
       <c r="F231" t="n">
         <v>1641155</v>
@@ -5061,16 +5061,16 @@
         <v>45271</v>
       </c>
       <c r="B232" t="n">
-        <v>3582.850341796875</v>
+        <v>3591.151123046875</v>
       </c>
       <c r="C232" t="n">
-        <v>3592.783949447361</v>
+        <v>3601.107744972663</v>
       </c>
       <c r="D232" t="n">
-        <v>3555.410341432305</v>
+        <v>3563.647549432295</v>
       </c>
       <c r="E232" t="n">
-        <v>3563.180021788951</v>
+        <v>3571.435230657208</v>
       </c>
       <c r="F232" t="n">
         <v>1102503</v>
@@ -5081,16 +5081,16 @@
         <v>45272</v>
       </c>
       <c r="B233" t="n">
-        <v>3611.5693359375</v>
+        <v>3619.936767578125</v>
       </c>
       <c r="C233" t="n">
-        <v>3637.435615620656</v>
+        <v>3645.862975316626</v>
       </c>
       <c r="D233" t="n">
-        <v>3571.146730765574</v>
+        <v>3579.420509660245</v>
       </c>
       <c r="E233" t="n">
-        <v>3578.965635237396</v>
+        <v>3587.257529289936</v>
       </c>
       <c r="F233" t="n">
         <v>2236866</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>3534.314208984375</v>
+        <v>3542.50244140625</v>
       </c>
       <c r="C234" t="n">
-        <v>3589.83364291804</v>
+        <v>3598.150501716094</v>
       </c>
       <c r="D234" t="n">
-        <v>3504.267745127939</v>
+        <v>3512.386366469711</v>
       </c>
       <c r="E234" t="n">
-        <v>3583.49001231202</v>
+        <v>3591.79217430647</v>
       </c>
       <c r="F234" t="n">
         <v>3850968</v>
@@ -5121,16 +5121,16 @@
         <v>45274</v>
       </c>
       <c r="B235" t="n">
-        <v>3606.799072265625</v>
+        <v>3615.1552734375</v>
       </c>
       <c r="C235" t="n">
-        <v>3617.371869327962</v>
+        <v>3625.752565465437</v>
       </c>
       <c r="D235" t="n">
-        <v>3567.802758682188</v>
+        <v>3576.068613529043</v>
       </c>
       <c r="E235" t="n">
-        <v>3570.16310104962</v>
+        <v>3578.434424317438</v>
       </c>
       <c r="F235" t="n">
         <v>3290396</v>
@@ -5141,16 +5141,16 @@
         <v>45275</v>
       </c>
       <c r="B236" t="n">
-        <v>3797.355224609375</v>
+        <v>3806.15283203125</v>
       </c>
       <c r="C236" t="n">
-        <v>3831.729060320942</v>
+        <v>3840.606304093458</v>
       </c>
       <c r="D236" t="n">
-        <v>3606.258020372302</v>
+        <v>3614.612899083574</v>
       </c>
       <c r="E236" t="n">
-        <v>3606.258020372302</v>
+        <v>3614.612899083574</v>
       </c>
       <c r="F236" t="n">
         <v>8531230</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>3795.584716796875</v>
+        <v>3804.378662109375</v>
       </c>
       <c r="C237" t="n">
-        <v>3864.234178321474</v>
+        <v>3873.187176758966</v>
       </c>
       <c r="D237" t="n">
-        <v>3767.013530346494</v>
+        <v>3775.741279415225</v>
       </c>
       <c r="E237" t="n">
-        <v>3794.502993318579</v>
+        <v>3803.294432398754</v>
       </c>
       <c r="F237" t="n">
         <v>2521612</v>
@@ -5181,16 +5181,16 @@
         <v>45279</v>
       </c>
       <c r="B238" t="n">
-        <v>3753.29345703125</v>
+        <v>3761.98974609375</v>
       </c>
       <c r="C238" t="n">
-        <v>3791.552370910364</v>
+        <v>3800.337304939776</v>
       </c>
       <c r="D238" t="n">
-        <v>3727.525387599317</v>
+        <v>3736.161972675724</v>
       </c>
       <c r="E238" t="n">
-        <v>3781.61876393651</v>
+        <v>3790.38068204173</v>
       </c>
       <c r="F238" t="n">
         <v>2004435</v>
@@ -5201,16 +5201,16 @@
         <v>45280</v>
       </c>
       <c r="B239" t="n">
-        <v>3717.739501953125</v>
+        <v>3726.35302734375</v>
       </c>
       <c r="C239" t="n">
-        <v>3834.53202061139</v>
+        <v>3843.416139281713</v>
       </c>
       <c r="D239" t="n">
-        <v>3704.462036674081</v>
+        <v>3713.044799881329</v>
       </c>
       <c r="E239" t="n">
-        <v>3764.161406609213</v>
+        <v>3772.882485596379</v>
       </c>
       <c r="F239" t="n">
         <v>2586083</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>3725.066650390625</v>
+        <v>3733.697265625</v>
       </c>
       <c r="C240" t="n">
-        <v>3743.950108555504</v>
+        <v>3752.624474916238</v>
       </c>
       <c r="D240" t="n">
-        <v>3681.644517363904</v>
+        <v>3690.174527761378</v>
       </c>
       <c r="E240" t="n">
-        <v>3694.331777037567</v>
+        <v>3702.891182575289</v>
       </c>
       <c r="F240" t="n">
         <v>1517562</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>3760.96484375</v>
+        <v>3769.6787109375</v>
       </c>
       <c r="C241" t="n">
-        <v>3782.552969973706</v>
+        <v>3791.316855194491</v>
       </c>
       <c r="D241" t="n">
-        <v>3699.986857266606</v>
+        <v>3708.559443134643</v>
       </c>
       <c r="E241" t="n">
-        <v>3737.360461885461</v>
+        <v>3746.019639529943</v>
       </c>
       <c r="F241" t="n">
         <v>2413058</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>3732.984130859375</v>
+        <v>3741.633056640625</v>
       </c>
       <c r="C242" t="n">
-        <v>3770.80027231725</v>
+        <v>3779.536814061852</v>
       </c>
       <c r="D242" t="n">
-        <v>3727.673000490613</v>
+        <v>3736.309620949696</v>
       </c>
       <c r="E242" t="n">
-        <v>3756.883617228289</v>
+        <v>3765.587915568481</v>
       </c>
       <c r="F242" t="n">
         <v>1285231</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>3748.376220703125</v>
+        <v>3757.060546875</v>
       </c>
       <c r="C243" t="n">
-        <v>3755.260832867557</v>
+        <v>3763.961109470788</v>
       </c>
       <c r="D243" t="n">
-        <v>3705.888376511586</v>
+        <v>3714.474265846929</v>
       </c>
       <c r="E243" t="n">
-        <v>3736.377373239786</v>
+        <v>3745.033900199703</v>
       </c>
       <c r="F243" t="n">
         <v>1293976</v>
@@ -5301,16 +5301,16 @@
         <v>45288</v>
       </c>
       <c r="B244" t="n">
-        <v>3737.262451171875</v>
+        <v>3745.9208984375</v>
       </c>
       <c r="C244" t="n">
-        <v>3774.734507809172</v>
+        <v>3783.479769910674</v>
       </c>
       <c r="D244" t="n">
-        <v>3729.591218262006</v>
+        <v>3738.231892902219</v>
       </c>
       <c r="E244" t="n">
-        <v>3760.965283445095</v>
+        <v>3769.678645163736</v>
       </c>
       <c r="F244" t="n">
         <v>1682889</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>3730.869140625</v>
+        <v>3739.51318359375</v>
       </c>
       <c r="C245" t="n">
-        <v>3759.587997164306</v>
+        <v>3768.298578792168</v>
       </c>
       <c r="D245" t="n">
-        <v>3703.330695265481</v>
+        <v>3711.910934467331</v>
       </c>
       <c r="E245" t="n">
-        <v>3729.492314403499</v>
+        <v>3738.133167406434</v>
       </c>
       <c r="F245" t="n">
         <v>1574996</v>
